--- a/public/resources/doc/cubixel/CUBIXEL Cash Flow - May 2020.xlsx
+++ b/public/resources/doc/cubixel/CUBIXEL Cash Flow - May 2020.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverstill/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverstill/Documents/AtomProjects/TutorPointWebsite/public/resources/doc/cubixel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BB95E8-6748-3C4F-AD6B-7123709FDD14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D777B-FFAE-8541-B8B7-8605956883D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2840" windowWidth="27640" windowHeight="16940" xr2:uid="{832640B7-98E1-884A-8208-78BAB8EBCB97}"/>
+    <workbookView xWindow="3540" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{832640B7-98E1-884A-8208-78BAB8EBCB97}"/>
   </bookViews>
   <sheets>
     <sheet name="CASHFLOW" sheetId="1" r:id="rId1"/>
     <sheet name="WORKINGS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -886,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -925,26 +922,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +941,6 @@
     <xf numFmtId="164" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -981,11 +959,9 @@
     <xf numFmtId="14" fontId="15" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1027,7 +1003,6 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1092,14 +1067,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1121,9 +1092,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1134,11 +1102,43 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -1156,6 +1156,66 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1207,51 +1267,23 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE8E7FC"/>
-          <bgColor rgb="FFE8E7FC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Cashflow Workings-style" pivot="0" count="2" xr9:uid="{A76CC904-8840-4241-ADA7-317F978AA655}">
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="Cashflow Workings-style 2" pivot="0" count="2" xr9:uid="{D39C1982-69B9-CB4A-A69F-5F7D72920AC0}">
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="Cashflow Workings-style 3" pivot="0" count="2" xr9:uid="{7BF2BC8D-6B35-C54D-971E-4AA04D72E557}">
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+    </tableStyle>
+    <tableStyle name="CASHFLOW-style" pivot="0" count="2" xr9:uid="{C14A431E-6055-064F-8B94-E4AEF7EACF55}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
-    </tableStyle>
-    <tableStyle name="Cashflow Workings-style 2" pivot="0" count="2" xr9:uid="{D39C1982-69B9-CB4A-A69F-5F7D72920AC0}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
-    </tableStyle>
-    <tableStyle name="Cashflow Workings-style 3" pivot="0" count="2" xr9:uid="{7BF2BC8D-6B35-C54D-971E-4AA04D72E557}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
-    </tableStyle>
-    <tableStyle name="CASHFLOW-style" pivot="0" count="2" xr9:uid="{C14A431E-6055-064F-8B94-E4AEF7EACF55}">
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1308,87 +1340,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PROFIT &amp; LOSS"/>
-      <sheetName val="BALANCE SHEET"/>
-      <sheetName val="Cashflow Workings"/>
-      <sheetName val="TutorPoint Budgets"/>
-      <sheetName val="Expenditure Predictions"/>
-      <sheetName val="Finance Report I"/>
-      <sheetName val="Finance Report II"/>
-      <sheetName val="Finance Report III"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="18">
-          <cell r="W18">
-            <v>0</v>
-          </cell>
-          <cell r="X18">
-            <v>111.45432692307692</v>
-          </cell>
-          <cell r="Y18">
-            <v>111.09295770155326</v>
-          </cell>
-          <cell r="Z18">
-            <v>110.73276015023632</v>
-          </cell>
-          <cell r="AA18">
-            <v>110.37373047021073</v>
-          </cell>
-          <cell r="AB18">
-            <v>110.01586487487847</v>
-          </cell>
-          <cell r="AC18">
-            <v>109.65915958991876</v>
-          </cell>
-          <cell r="AD18">
-            <v>109.30361085324837</v>
-          </cell>
-          <cell r="AE18">
-            <v>175.82181106882805</v>
-          </cell>
-          <cell r="AF18">
-            <v>175.25174265832408</v>
-          </cell>
-          <cell r="AG18">
-            <v>174.6835225850127</v>
-          </cell>
-          <cell r="AH18">
-            <v>174.1171448560159</v>
-          </cell>
-          <cell r="AI18">
-            <v>173.55260349788659</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7FD8122-589D-D44F-B839-109001C7A24C}" name="Table_1" displayName="Table_1" ref="Z21:AB21" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1">
-      <calculatedColumnFormula>'[1]Cashflow Workings'!W18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2">
-      <calculatedColumnFormula>'[1]Cashflow Workings'!X18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3">
-      <calculatedColumnFormula>'[1]Cashflow Workings'!Y18</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="CASHFLOW-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1803,11 +1760,11 @@
   <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="AI12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="AJ9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D49" sqref="D49"/>
       <selection pane="topRight" activeCell="D49" sqref="D49"/>
       <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
-      <selection pane="bottomRight" activeCell="AN21" sqref="AN21"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1816,7 +1773,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
+      <c r="A1" s="19"/>
     </row>
     <row r="2" spans="1:45" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -1828,57 +1785,57 @@
         <v>34</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="N3" s="19" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="N3" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21" t="s">
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="19" t="s">
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="19" t="s">
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
       <c r="AS3" s="17"/>
     </row>
     <row r="4" spans="1:45" ht="14" x14ac:dyDescent="0.2">
@@ -2024,39 +1981,39 @@
         <v>43738</v>
       </c>
       <c r="D6" s="15">
-        <f>C6+7</f>
+        <f t="shared" ref="D6:L6" si="0">C6+7</f>
         <v>43745</v>
       </c>
       <c r="E6" s="15">
-        <f>D6+7</f>
+        <f t="shared" si="0"/>
         <v>43752</v>
       </c>
       <c r="F6" s="15">
-        <f>E6+7</f>
+        <f t="shared" si="0"/>
         <v>43759</v>
       </c>
       <c r="G6" s="15">
-        <f>F6+7</f>
+        <f t="shared" si="0"/>
         <v>43766</v>
       </c>
       <c r="H6" s="15">
-        <f>G6+7</f>
+        <f t="shared" si="0"/>
         <v>43773</v>
       </c>
       <c r="I6" s="15">
-        <f>H6+7</f>
+        <f t="shared" si="0"/>
         <v>43780</v>
       </c>
       <c r="J6" s="15">
-        <f>I6+7</f>
+        <f t="shared" si="0"/>
         <v>43787</v>
       </c>
       <c r="K6" s="15">
-        <f>J6+7</f>
+        <f t="shared" si="0"/>
         <v>43794</v>
       </c>
       <c r="L6" s="15">
-        <f>K6+7</f>
+        <f t="shared" si="0"/>
         <v>43801</v>
       </c>
       <c r="M6" s="15"/>
@@ -2082,39 +2039,39 @@
         <v>43836</v>
       </c>
       <c r="T6" s="15">
-        <f>S6+7</f>
+        <f t="shared" ref="T6:AB6" si="1">S6+7</f>
         <v>43843</v>
       </c>
       <c r="U6" s="15">
-        <f>T6+7</f>
+        <f t="shared" si="1"/>
         <v>43850</v>
       </c>
       <c r="V6" s="15">
-        <f>U6+7</f>
+        <f t="shared" si="1"/>
         <v>43857</v>
       </c>
       <c r="W6" s="15">
-        <f>V6+7</f>
+        <f t="shared" si="1"/>
         <v>43864</v>
       </c>
       <c r="X6" s="15">
-        <f>W6+7</f>
+        <f t="shared" si="1"/>
         <v>43871</v>
       </c>
       <c r="Y6" s="15">
-        <f>X6+7</f>
+        <f t="shared" si="1"/>
         <v>43878</v>
       </c>
       <c r="Z6" s="15">
-        <f>Y6+7</f>
+        <f t="shared" si="1"/>
         <v>43885</v>
       </c>
       <c r="AA6" s="15">
-        <f>Z6+7</f>
+        <f t="shared" si="1"/>
         <v>43892</v>
       </c>
       <c r="AB6" s="15">
-        <f>AA6+7</f>
+        <f t="shared" si="1"/>
         <v>43899</v>
       </c>
       <c r="AC6" s="15"/>
@@ -2140,35 +2097,35 @@
         <v>43934</v>
       </c>
       <c r="AJ6" s="15">
-        <f>AI6+7</f>
+        <f t="shared" ref="AJ6:AQ6" si="2">AI6+7</f>
         <v>43941</v>
       </c>
       <c r="AK6" s="15">
-        <f>AJ6+7</f>
+        <f t="shared" si="2"/>
         <v>43948</v>
       </c>
       <c r="AL6" s="15">
-        <f>AK6+7</f>
+        <f t="shared" si="2"/>
         <v>43955</v>
       </c>
       <c r="AM6" s="15">
-        <f>AL6+7</f>
+        <f t="shared" si="2"/>
         <v>43962</v>
       </c>
       <c r="AN6" s="15">
-        <f>AM6+7</f>
+        <f t="shared" si="2"/>
         <v>43969</v>
       </c>
       <c r="AO6" s="15">
-        <f>AN6+7</f>
+        <f t="shared" si="2"/>
         <v>43976</v>
       </c>
-      <c r="AP6" s="15">
-        <f>AO6+7</f>
+      <c r="AP6" s="107">
+        <f t="shared" si="2"/>
         <v>43983</v>
       </c>
       <c r="AQ6" s="15">
-        <f>AP6+7</f>
+        <f t="shared" si="2"/>
         <v>43990</v>
       </c>
       <c r="AR6" s="15">
@@ -2678,43 +2635,43 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="5">
-        <f>SUM(C10:C11)</f>
+        <f t="shared" ref="C13:L13" si="3">SUM(C10:C11)</f>
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f>SUM(D10:D11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f>SUM(E10:E11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <f>SUM(F10:F11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <f>SUM(G10:G11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f>SUM(H10:H11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f>SUM(I10:I11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f>SUM(J10:J11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <f>SUM(K10:K11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f>SUM(L10:L11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
@@ -2736,43 +2693,43 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="5">
-        <f>SUM(S10:S11)</f>
+        <f t="shared" ref="S13:AB13" si="4">SUM(S10:S11)</f>
         <v>0</v>
       </c>
       <c r="T13" s="5">
-        <f>SUM(T10:T11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <f>SUM(U10:U11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V13" s="5">
-        <f>SUM(V10:V11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <f>SUM(W10:W11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X13" s="5">
-        <f>SUM(X10:X11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y13" s="5">
-        <f>SUM(Y10:Y11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <f>SUM(Z10:Z11)</f>
+        <f t="shared" si="4"/>
         <v>34626.44</v>
       </c>
       <c r="AA13" s="5">
-        <f>SUM(AA10:AA11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <f>SUM(AB10:AB11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC13" s="4"/>
@@ -2794,43 +2751,43 @@
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="5">
-        <f>SUM(AI10:AI11)</f>
+        <f t="shared" ref="AI13:AR13" si="5">SUM(AI10:AI11)</f>
         <v>20625</v>
       </c>
       <c r="AJ13" s="5">
-        <f>SUM(AJ10:AJ11)</f>
+        <f t="shared" si="5"/>
         <v>502.88</v>
       </c>
       <c r="AK13" s="5">
-        <f>SUM(AK10:AK11)</f>
+        <f t="shared" si="5"/>
         <v>251.44</v>
       </c>
       <c r="AL13" s="5">
-        <f>SUM(AL10:AL11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM13" s="5">
-        <f>SUM(AM10:AM11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN13" s="5">
-        <f>SUM(AN10:AN11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO13" s="5">
-        <f>SUM(AO10:AO11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP13" s="5">
-        <f>SUM(AP10:AP11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="5">
-        <f>SUM(AQ10:AQ11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR13" s="5">
-        <f>SUM(AR10:AR11)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS13" s="4"/>
@@ -3541,7 +3498,7 @@
         <v>1709.38</v>
       </c>
       <c r="AO20" s="2">
-        <v>1515.625</v>
+        <v>1815.625</v>
       </c>
       <c r="AP20" s="2">
         <v>0</v>
@@ -3625,57 +3582,44 @@
         <v>0</v>
       </c>
       <c r="Z21" s="12">
-        <f>'[1]Cashflow Workings'!W18</f>
         <v>0</v>
       </c>
       <c r="AA21" s="12">
-        <f>'[1]Cashflow Workings'!X18</f>
         <v>111.45432692307692</v>
       </c>
       <c r="AB21" s="12">
-        <f>'[1]Cashflow Workings'!Y18</f>
         <v>111.09295770155326</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2">
-        <f>'[1]Cashflow Workings'!Z18</f>
         <v>110.73276015023632</v>
       </c>
       <c r="AE21" s="2">
-        <f>'[1]Cashflow Workings'!AA18</f>
         <v>110.37373047021073</v>
       </c>
       <c r="AF21" s="2">
-        <f>'[1]Cashflow Workings'!AB18</f>
         <v>110.01586487487847</v>
       </c>
       <c r="AG21" s="2">
-        <f>'[1]Cashflow Workings'!AC18</f>
         <v>109.65915958991876</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="2">
-        <f>'[1]Cashflow Workings'!AD18</f>
         <v>109.30361085324837</v>
       </c>
       <c r="AJ21" s="2">
-        <f>'[1]Cashflow Workings'!AE18</f>
         <v>175.82181106882805</v>
       </c>
       <c r="AK21" s="2">
-        <f>'[1]Cashflow Workings'!AF18</f>
         <v>175.25174265832408</v>
       </c>
       <c r="AL21" s="2">
-        <f>'[1]Cashflow Workings'!AG18</f>
         <v>174.6835225850127</v>
       </c>
       <c r="AM21" s="2">
-        <f>'[1]Cashflow Workings'!AH18</f>
         <v>174.1171448560159</v>
       </c>
       <c r="AN21" s="2">
-        <f>'[1]Cashflow Workings'!AI18</f>
         <v>173.55260349788659</v>
       </c>
       <c r="AO21" s="2">
@@ -3745,43 +3689,43 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="5">
-        <f>SUM(C16:C21)</f>
+        <f t="shared" ref="C23:L23" si="6">SUM(C16:C21)</f>
         <v>0</v>
       </c>
       <c r="D23" s="5">
-        <f>SUM(D16:D21)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f>SUM(E16:E21)</f>
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="F23" s="5">
-        <f>SUM(F16:F21)</f>
+        <f t="shared" si="6"/>
         <v>2655.8</v>
       </c>
       <c r="G23" s="5">
-        <f>SUM(G16:G21)</f>
+        <f t="shared" si="6"/>
         <v>143.75</v>
       </c>
       <c r="H23" s="5">
-        <f>SUM(H16:H21)</f>
+        <f t="shared" si="6"/>
         <v>1156.25</v>
       </c>
       <c r="I23" s="5">
-        <f>SUM(I16:I21)</f>
+        <f t="shared" si="6"/>
         <v>2063.7249999999999</v>
       </c>
       <c r="J23" s="5">
-        <f>SUM(J16:J21)</f>
+        <f t="shared" si="6"/>
         <v>309.375</v>
       </c>
       <c r="K23" s="5">
-        <f>SUM(K16:K21)</f>
+        <f t="shared" si="6"/>
         <v>446.875</v>
       </c>
       <c r="L23" s="5">
-        <f>SUM(L16:L21)</f>
+        <f t="shared" si="6"/>
         <v>2907.4749999999999</v>
       </c>
       <c r="M23" s="1"/>
@@ -3803,43 +3747,43 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="5">
-        <f>SUM(S16:S21)</f>
+        <f t="shared" ref="S23:AB23" si="7">SUM(S16:S21)</f>
         <v>0</v>
       </c>
       <c r="T23" s="5">
-        <f>SUM(T16:T21)</f>
+        <f t="shared" si="7"/>
         <v>684.375</v>
       </c>
       <c r="U23" s="5">
-        <f>SUM(U16:U21)</f>
+        <f t="shared" si="7"/>
         <v>768.75</v>
       </c>
       <c r="V23" s="5">
-        <f>SUM(V16:V21)</f>
+        <f t="shared" si="7"/>
         <v>5802.2250000000004</v>
       </c>
       <c r="W23" s="5">
-        <f>SUM(W16:W21)</f>
+        <f t="shared" si="7"/>
         <v>1193.75</v>
       </c>
       <c r="X23" s="5">
-        <f>SUM(X16:X21)</f>
+        <f t="shared" si="7"/>
         <v>2143.75</v>
       </c>
       <c r="Y23" s="5">
-        <f>SUM(Y16:Y21)</f>
+        <f t="shared" si="7"/>
         <v>2879.35</v>
       </c>
       <c r="Z23" s="5">
-        <f>SUM(Z16:Z21)</f>
+        <f t="shared" si="7"/>
         <v>1113.9749999999999</v>
       </c>
       <c r="AA23" s="5">
-        <f>SUM(AA16:AA21)</f>
+        <f t="shared" si="7"/>
         <v>955.20432692307691</v>
       </c>
       <c r="AB23" s="5">
-        <f>SUM(AB16:AB21)</f>
+        <f t="shared" si="7"/>
         <v>3343.567957701553</v>
       </c>
       <c r="AC23" s="2"/>
@@ -3861,43 +3805,43 @@
       </c>
       <c r="AH23" s="4"/>
       <c r="AI23" s="5">
-        <f>SUM(AI16:AI21)</f>
+        <f t="shared" ref="AI23:AR23" si="8">SUM(AI16:AI21)</f>
         <v>1074.9286108532483</v>
       </c>
       <c r="AJ23" s="5">
-        <f>SUM(AJ16:AJ21)</f>
+        <f t="shared" si="8"/>
         <v>1972.5218110688281</v>
       </c>
       <c r="AK23" s="5">
-        <f>SUM(AK16:AK21)</f>
+        <f t="shared" si="8"/>
         <v>1726.7267426583239</v>
       </c>
       <c r="AL23" s="5">
-        <f>SUM(AL16:AL21)</f>
+        <f t="shared" si="8"/>
         <v>6026.9085225850131</v>
       </c>
       <c r="AM23" s="5">
-        <f>SUM(AM16:AM21)</f>
+        <f t="shared" si="8"/>
         <v>1124.1171448560158</v>
       </c>
       <c r="AN23" s="5">
-        <f>SUM(AN16:AN21)</f>
+        <f t="shared" si="8"/>
         <v>7779.1326034978865</v>
       </c>
       <c r="AO23" s="5">
-        <f>SUM(AO16:AO21)</f>
-        <v>1515.625</v>
+        <f t="shared" si="8"/>
+        <v>1815.625</v>
       </c>
       <c r="AP23" s="5">
-        <f>SUM(AP16:AP21)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="5">
-        <f>SUM(AQ16:AQ21)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR23" s="5">
-        <f>SUM(AR16:AR21)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS23" s="4"/>
@@ -4002,43 +3946,43 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="5">
-        <f>C13-C23</f>
+        <f t="shared" ref="C26:L26" si="9">C13-C23</f>
         <v>0</v>
       </c>
       <c r="D26" s="5">
-        <f>D13-D23</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f>E13-E23</f>
+        <f t="shared" si="9"/>
         <v>-12.5</v>
       </c>
       <c r="F26" s="5">
-        <f>F13-F23</f>
+        <f t="shared" si="9"/>
         <v>-2655.8</v>
       </c>
       <c r="G26" s="5">
-        <f>G13-G23</f>
+        <f t="shared" si="9"/>
         <v>-143.75</v>
       </c>
       <c r="H26" s="5">
-        <f>H13-H23</f>
+        <f t="shared" si="9"/>
         <v>-1156.25</v>
       </c>
       <c r="I26" s="5">
-        <f>I13-I23</f>
+        <f t="shared" si="9"/>
         <v>-2063.7249999999999</v>
       </c>
       <c r="J26" s="5">
-        <f>J13-J23</f>
+        <f t="shared" si="9"/>
         <v>-309.375</v>
       </c>
       <c r="K26" s="5">
-        <f>K13-K23</f>
+        <f t="shared" si="9"/>
         <v>-446.875</v>
       </c>
       <c r="L26" s="5">
-        <f>L13-L23</f>
+        <f t="shared" si="9"/>
         <v>-2907.4749999999999</v>
       </c>
       <c r="M26" s="1"/>
@@ -4060,43 +4004,43 @@
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="5">
-        <f>S13-S23</f>
+        <f t="shared" ref="S26:AB26" si="10">S13-S23</f>
         <v>0</v>
       </c>
       <c r="T26" s="5">
-        <f>T13-T23</f>
+        <f t="shared" si="10"/>
         <v>-684.375</v>
       </c>
       <c r="U26" s="5">
-        <f>U13-U23</f>
+        <f t="shared" si="10"/>
         <v>-768.75</v>
       </c>
       <c r="V26" s="5">
-        <f>V13-V23</f>
+        <f t="shared" si="10"/>
         <v>-5802.2250000000004</v>
       </c>
       <c r="W26" s="5">
-        <f>W13-W23</f>
+        <f t="shared" si="10"/>
         <v>-1193.75</v>
       </c>
       <c r="X26" s="5">
-        <f>X13-X23</f>
+        <f t="shared" si="10"/>
         <v>-2143.75</v>
       </c>
       <c r="Y26" s="5">
-        <f>Y13-Y23</f>
+        <f t="shared" si="10"/>
         <v>-2879.35</v>
       </c>
       <c r="Z26" s="5">
-        <f>Z13-Z23</f>
+        <f t="shared" si="10"/>
         <v>33512.465000000004</v>
       </c>
       <c r="AA26" s="5">
-        <f>AA13-AA23</f>
+        <f t="shared" si="10"/>
         <v>-955.20432692307691</v>
       </c>
       <c r="AB26" s="5">
-        <f>AB13-AB23</f>
+        <f t="shared" si="10"/>
         <v>-3343.567957701553</v>
       </c>
       <c r="AC26" s="2"/>
@@ -4118,43 +4062,43 @@
       </c>
       <c r="AH26" s="4"/>
       <c r="AI26" s="5">
-        <f>AI13-AI23</f>
+        <f t="shared" ref="AI26:AR26" si="11">AI13-AI23</f>
         <v>19550.071389146753</v>
       </c>
       <c r="AJ26" s="5">
-        <f>AJ13-AJ23</f>
+        <f t="shared" si="11"/>
         <v>-1469.6418110688282</v>
       </c>
       <c r="AK26" s="5">
-        <f>AK13-AK23</f>
+        <f t="shared" si="11"/>
         <v>-1475.2867426583239</v>
       </c>
       <c r="AL26" s="5">
-        <f>AL13-AL23</f>
+        <f t="shared" si="11"/>
         <v>-6026.9085225850131</v>
       </c>
       <c r="AM26" s="5">
-        <f>AM13-AM23</f>
+        <f t="shared" si="11"/>
         <v>-1124.1171448560158</v>
       </c>
       <c r="AN26" s="5">
-        <f>AN13-AN23</f>
+        <f t="shared" si="11"/>
         <v>-7779.1326034978865</v>
       </c>
       <c r="AO26" s="5">
-        <f>AO13-AO23</f>
-        <v>-1515.625</v>
+        <f t="shared" si="11"/>
+        <v>-1815.625</v>
       </c>
       <c r="AP26" s="5">
-        <f>AP13-AP23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="5">
-        <f>AQ13-AQ23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR26" s="5">
-        <f>AR13-AR23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS26" s="4"/>
@@ -4215,39 +4159,39 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f>C30</f>
+        <f t="shared" ref="D28:L28" si="12">C30</f>
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f>D30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <f>E30</f>
+        <f t="shared" si="12"/>
         <v>-12.5</v>
       </c>
       <c r="G28" s="2">
-        <f>F30</f>
+        <f t="shared" si="12"/>
         <v>-2668.3</v>
       </c>
       <c r="H28" s="2">
-        <f>G30</f>
+        <f t="shared" si="12"/>
         <v>-2812.05</v>
       </c>
       <c r="I28" s="2">
-        <f>H30</f>
+        <f t="shared" si="12"/>
         <v>-3968.3</v>
       </c>
       <c r="J28" s="2">
-        <f>I30</f>
+        <f t="shared" si="12"/>
         <v>-6032.0249999999996</v>
       </c>
       <c r="K28" s="2">
-        <f>J30</f>
+        <f t="shared" si="12"/>
         <v>-6341.4</v>
       </c>
       <c r="L28" s="2">
-        <f>K30</f>
+        <f t="shared" si="12"/>
         <v>-6788.2749999999996</v>
       </c>
       <c r="M28" s="1"/>
@@ -4273,39 +4217,39 @@
         <v>-9695.75</v>
       </c>
       <c r="T28" s="2">
-        <f>S30</f>
+        <f t="shared" ref="T28:AB28" si="13">S30</f>
         <v>-9695.75</v>
       </c>
       <c r="U28" s="2">
-        <f>T30</f>
+        <f t="shared" si="13"/>
         <v>-10380.125</v>
       </c>
       <c r="V28" s="2">
-        <f>U30</f>
+        <f t="shared" si="13"/>
         <v>-11148.875</v>
       </c>
       <c r="W28" s="2">
-        <f>V30</f>
+        <f t="shared" si="13"/>
         <v>-16951.099999999999</v>
       </c>
       <c r="X28" s="2">
-        <f>W30</f>
+        <f t="shared" si="13"/>
         <v>-18144.849999999999</v>
       </c>
       <c r="Y28" s="2">
-        <f>X30</f>
+        <f t="shared" si="13"/>
         <v>-20288.599999999999</v>
       </c>
       <c r="Z28" s="2">
-        <f>Y30</f>
+        <f t="shared" si="13"/>
         <v>-23167.949999999997</v>
       </c>
       <c r="AA28" s="2">
-        <f>Z30</f>
+        <f t="shared" si="13"/>
         <v>10344.515000000007</v>
       </c>
       <c r="AB28" s="2">
-        <f>AA30</f>
+        <f t="shared" si="13"/>
         <v>9389.3106730769305</v>
       </c>
       <c r="AC28" s="2"/>
@@ -4331,40 +4275,40 @@
         <v>2073.7112002901331</v>
       </c>
       <c r="AJ28" s="2">
-        <f>AI30</f>
+        <f t="shared" ref="AJ28:AR28" si="14">AI30</f>
         <v>21623.782589436887</v>
       </c>
       <c r="AK28" s="2">
-        <f>AJ30</f>
+        <f t="shared" si="14"/>
         <v>20154.140778368059</v>
       </c>
       <c r="AL28" s="2">
-        <f>AK30</f>
+        <f t="shared" si="14"/>
         <v>18678.854035709734</v>
       </c>
       <c r="AM28" s="2">
-        <f>AL30</f>
+        <f t="shared" si="14"/>
         <v>12651.94551312472</v>
       </c>
       <c r="AN28" s="2">
-        <f>AM30</f>
+        <f t="shared" si="14"/>
         <v>11527.828368268703</v>
       </c>
       <c r="AO28" s="2">
-        <f>AN30</f>
+        <f t="shared" si="14"/>
         <v>3748.6957647708168</v>
       </c>
       <c r="AP28" s="2">
-        <f>AO30</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="14"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AQ28" s="2">
-        <f>AP30</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="14"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AR28" s="2">
-        <f>AQ30</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="14"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AS28" s="2"/>
     </row>
@@ -4374,43 +4318,43 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="2">
-        <f>C26</f>
+        <f t="shared" ref="C29:L29" si="15">C26</f>
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <f>D26</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f>E26</f>
+        <f t="shared" si="15"/>
         <v>-12.5</v>
       </c>
       <c r="F29" s="2">
-        <f>F26</f>
+        <f t="shared" si="15"/>
         <v>-2655.8</v>
       </c>
       <c r="G29" s="2">
-        <f>G26</f>
+        <f t="shared" si="15"/>
         <v>-143.75</v>
       </c>
       <c r="H29" s="2">
-        <f>H26</f>
+        <f t="shared" si="15"/>
         <v>-1156.25</v>
       </c>
       <c r="I29" s="2">
-        <f>I26</f>
+        <f t="shared" si="15"/>
         <v>-2063.7249999999999</v>
       </c>
       <c r="J29" s="2">
-        <f>J26</f>
+        <f t="shared" si="15"/>
         <v>-309.375</v>
       </c>
       <c r="K29" s="2">
-        <f>K26</f>
+        <f t="shared" si="15"/>
         <v>-446.875</v>
       </c>
       <c r="L29" s="2">
-        <f>L26</f>
+        <f t="shared" si="15"/>
         <v>-2907.4749999999999</v>
       </c>
       <c r="M29" s="1"/>
@@ -4432,43 +4376,43 @@
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="2">
-        <f>S26</f>
+        <f t="shared" ref="S29:AB29" si="16">S26</f>
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f>T26</f>
+        <f t="shared" si="16"/>
         <v>-684.375</v>
       </c>
       <c r="U29" s="2">
-        <f>U26</f>
+        <f t="shared" si="16"/>
         <v>-768.75</v>
       </c>
       <c r="V29" s="2">
-        <f>V26</f>
+        <f t="shared" si="16"/>
         <v>-5802.2250000000004</v>
       </c>
       <c r="W29" s="2">
-        <f>W26</f>
+        <f t="shared" si="16"/>
         <v>-1193.75</v>
       </c>
       <c r="X29" s="2">
-        <f>X26</f>
+        <f t="shared" si="16"/>
         <v>-2143.75</v>
       </c>
       <c r="Y29" s="2">
-        <f>Y26</f>
+        <f t="shared" si="16"/>
         <v>-2879.35</v>
       </c>
       <c r="Z29" s="2">
-        <f>Z26</f>
+        <f t="shared" si="16"/>
         <v>33512.465000000004</v>
       </c>
       <c r="AA29" s="2">
-        <f>AA26</f>
+        <f t="shared" si="16"/>
         <v>-955.20432692307691</v>
       </c>
       <c r="AB29" s="2">
-        <f>AB26</f>
+        <f t="shared" si="16"/>
         <v>-3343.567957701553</v>
       </c>
       <c r="AC29" s="2"/>
@@ -4490,43 +4434,43 @@
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="2">
-        <f>AI26</f>
+        <f t="shared" ref="AI29:AR29" si="17">AI26</f>
         <v>19550.071389146753</v>
       </c>
       <c r="AJ29" s="2">
-        <f>AJ26</f>
+        <f t="shared" si="17"/>
         <v>-1469.6418110688282</v>
       </c>
       <c r="AK29" s="2">
-        <f>AK26</f>
+        <f t="shared" si="17"/>
         <v>-1475.2867426583239</v>
       </c>
       <c r="AL29" s="2">
-        <f>AL26</f>
+        <f t="shared" si="17"/>
         <v>-6026.9085225850131</v>
       </c>
       <c r="AM29" s="2">
-        <f>AM26</f>
+        <f t="shared" si="17"/>
         <v>-1124.1171448560158</v>
       </c>
       <c r="AN29" s="2">
-        <f>AN26</f>
+        <f t="shared" si="17"/>
         <v>-7779.1326034978865</v>
       </c>
       <c r="AO29" s="2">
-        <f>AO26</f>
-        <v>-1515.625</v>
+        <f t="shared" si="17"/>
+        <v>-1815.625</v>
       </c>
       <c r="AP29" s="2">
-        <f>AP26</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="2">
-        <f>AQ26</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR29" s="2">
-        <f>AR26</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS29" s="2"/>
@@ -4540,39 +4484,39 @@
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <f>D29+D28</f>
+        <f t="shared" ref="D30:L30" si="18">D29+D28</f>
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f>E29+E28</f>
+        <f t="shared" si="18"/>
         <v>-12.5</v>
       </c>
       <c r="F30" s="5">
-        <f>F29+F28</f>
+        <f t="shared" si="18"/>
         <v>-2668.3</v>
       </c>
       <c r="G30" s="5">
-        <f>G29+G28</f>
+        <f t="shared" si="18"/>
         <v>-2812.05</v>
       </c>
       <c r="H30" s="5">
-        <f>H29+H28</f>
+        <f t="shared" si="18"/>
         <v>-3968.3</v>
       </c>
       <c r="I30" s="5">
-        <f>I29+I28</f>
+        <f t="shared" si="18"/>
         <v>-6032.0249999999996</v>
       </c>
       <c r="J30" s="5">
-        <f>J29+J28</f>
+        <f t="shared" si="18"/>
         <v>-6341.4</v>
       </c>
       <c r="K30" s="5">
-        <f>K29+K28</f>
+        <f t="shared" si="18"/>
         <v>-6788.2749999999996</v>
       </c>
       <c r="L30" s="5">
-        <f>L29+L28</f>
+        <f t="shared" si="18"/>
         <v>-9695.75</v>
       </c>
       <c r="M30" s="1"/>
@@ -4594,43 +4538,43 @@
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="5">
-        <f>S29+S28</f>
+        <f t="shared" ref="S30:AB30" si="19">S29+S28</f>
         <v>-9695.75</v>
       </c>
       <c r="T30" s="5">
-        <f>T29+T28</f>
+        <f t="shared" si="19"/>
         <v>-10380.125</v>
       </c>
       <c r="U30" s="5">
-        <f>U29+U28</f>
+        <f t="shared" si="19"/>
         <v>-11148.875</v>
       </c>
       <c r="V30" s="5">
-        <f>V29+V28</f>
+        <f t="shared" si="19"/>
         <v>-16951.099999999999</v>
       </c>
       <c r="W30" s="5">
-        <f>W29+W28</f>
+        <f t="shared" si="19"/>
         <v>-18144.849999999999</v>
       </c>
       <c r="X30" s="5">
-        <f>X29+X28</f>
+        <f t="shared" si="19"/>
         <v>-20288.599999999999</v>
       </c>
       <c r="Y30" s="5">
-        <f>Y29+Y28</f>
+        <f t="shared" si="19"/>
         <v>-23167.949999999997</v>
       </c>
       <c r="Z30" s="5">
-        <f>Z29+Z28</f>
+        <f t="shared" si="19"/>
         <v>10344.515000000007</v>
       </c>
       <c r="AA30" s="5">
-        <f>AA29+AA28</f>
+        <f t="shared" si="19"/>
         <v>9389.3106730769305</v>
       </c>
       <c r="AB30" s="5">
-        <f>AB29+AB28</f>
+        <f t="shared" si="19"/>
         <v>6045.7427153753779</v>
       </c>
       <c r="AC30" s="2"/>
@@ -4652,44 +4596,44 @@
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="5">
-        <f>AI29+AI28</f>
+        <f t="shared" ref="AI30:AR30" si="20">AI29+AI28</f>
         <v>21623.782589436887</v>
       </c>
       <c r="AJ30" s="5">
-        <f>AJ29+AJ28</f>
+        <f t="shared" si="20"/>
         <v>20154.140778368059</v>
       </c>
       <c r="AK30" s="5">
-        <f>AK29+AK28</f>
+        <f t="shared" si="20"/>
         <v>18678.854035709734</v>
       </c>
       <c r="AL30" s="5">
-        <f>AL29+AL28</f>
+        <f t="shared" si="20"/>
         <v>12651.94551312472</v>
       </c>
       <c r="AM30" s="5">
-        <f>AM29+AM28</f>
+        <f t="shared" si="20"/>
         <v>11527.828368268703</v>
       </c>
       <c r="AN30" s="5">
-        <f>AN29+AN28</f>
+        <f t="shared" si="20"/>
         <v>3748.6957647708168</v>
       </c>
       <c r="AO30" s="5">
-        <f>AO29+AO28</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="20"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AP30" s="5">
-        <f>AP29+AP28</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="20"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AQ30" s="5">
-        <f>AQ29+AQ28</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="20"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AR30" s="5">
-        <f>AR29+AR28</f>
-        <v>2233.0707647708168</v>
+        <f t="shared" si="20"/>
+        <v>1933.0707647708168</v>
       </c>
       <c r="AS30" s="4"/>
     </row>
@@ -4795,11 +4739,6 @@
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AI3:AR3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:AS6">
-    <cfRule type="timePeriod" dxfId="8" priority="1" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(C5,1)&lt;=6,FLOOR(C5,1)&lt;=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" cellComments="atEnd"/>
@@ -4814,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3751BA98-500F-9245-95B6-D461EEBBF5F8}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4828,5306 +4767,5310 @@
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="23" t="s">
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="26" t="s">
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="23" t="s">
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="27" t="s">
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="106" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="32" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AK2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="32" t="s">
+      <c r="AL2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="32" t="s">
+      <c r="AM2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AN2" s="33"/>
+      <c r="AN2" s="96"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="26">
         <v>43738</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="26">
         <v>43745</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="26">
         <v>43752</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="26">
         <v>43759</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="26">
         <v>43766</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="26">
         <v>43773</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="26">
         <v>43780</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="26">
         <v>43787</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="26">
         <v>43794</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="26">
         <v>43801</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="27">
         <v>43808</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="27">
         <v>43815</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="27">
         <v>43822</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="28">
         <v>43829</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="26">
         <v>43836</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="26">
         <v>43843</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="26">
         <v>43850</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="26">
         <v>43857</v>
       </c>
-      <c r="T3" s="35">
+      <c r="T3" s="26">
         <v>43864</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="26">
         <v>43871</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="26">
         <v>43878</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="26">
         <v>43885</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="26">
         <v>43892</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="26">
         <v>43899</v>
       </c>
-      <c r="Z3" s="36">
+      <c r="Z3" s="27">
         <v>43906</v>
       </c>
-      <c r="AA3" s="36">
+      <c r="AA3" s="27">
         <v>43913</v>
       </c>
-      <c r="AB3" s="36">
+      <c r="AB3" s="27">
         <v>43920</v>
       </c>
-      <c r="AC3" s="36">
+      <c r="AC3" s="27">
         <v>43927</v>
       </c>
-      <c r="AD3" s="38">
+      <c r="AD3" s="29">
         <v>43934</v>
       </c>
-      <c r="AE3" s="39">
+      <c r="AE3" s="30">
         <v>43941</v>
       </c>
-      <c r="AF3" s="39">
+      <c r="AF3" s="30">
         <v>43948</v>
       </c>
-      <c r="AG3" s="39">
+      <c r="AG3" s="30">
         <v>43955</v>
       </c>
-      <c r="AH3" s="39">
+      <c r="AH3" s="30">
         <v>43962</v>
       </c>
-      <c r="AI3" s="39">
+      <c r="AI3" s="30">
         <v>43969</v>
       </c>
-      <c r="AJ3" s="39">
+      <c r="AJ3" s="30">
         <v>43976</v>
       </c>
-      <c r="AK3" s="39">
+      <c r="AK3" s="30">
         <v>43983</v>
       </c>
-      <c r="AL3" s="39">
+      <c r="AL3" s="30">
         <v>43990</v>
       </c>
-      <c r="AM3" s="39">
+      <c r="AM3" s="30">
         <v>43990</v>
       </c>
-      <c r="AN3" s="40"/>
+      <c r="AN3" s="97"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="25"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="100"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="44">
-        <v>0</v>
-      </c>
-      <c r="C5" s="44">
-        <v>0</v>
-      </c>
-      <c r="D5" s="44">
-        <v>0</v>
-      </c>
-      <c r="E5" s="44">
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
         <v>1</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="33">
         <f t="shared" ref="F5:G5" si="0">(0.5)</f>
         <v>0.5</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="34">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="34">
         <f t="shared" ref="H5:J5" si="1">(0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="34">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="35">
         <f t="shared" ref="L5:P5" si="2">(0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="34">
         <f>(2.5)</f>
         <v>2.5</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="34">
         <v>6</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="36">
         <f>(2)</f>
         <v>2</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="36">
         <v>6</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="36">
         <v>7.5</v>
       </c>
-      <c r="V5" s="47">
+      <c r="V5" s="36">
         <v>3</v>
       </c>
-      <c r="W5" s="47">
+      <c r="W5" s="36">
         <v>8.25</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X5" s="36">
         <v>7</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="Y5" s="36">
         <v>1.75</v>
       </c>
-      <c r="Z5" s="48">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="48">
+      <c r="Z5" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="37">
         <v>8.25</v>
       </c>
-      <c r="AB5" s="48">
+      <c r="AB5" s="37">
         <v>10.5</v>
       </c>
-      <c r="AC5" s="48">
+      <c r="AC5" s="37">
         <v>18.25</v>
       </c>
-      <c r="AD5" s="47">
+      <c r="AD5" s="36">
         <v>8.5</v>
       </c>
-      <c r="AE5" s="47">
+      <c r="AE5" s="36">
         <v>10</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="36">
         <v>12</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="AG5" s="36">
         <v>1.5</v>
       </c>
-      <c r="AH5" s="47">
+      <c r="AH5" s="36">
         <v>3</v>
       </c>
-      <c r="AI5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="AK5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="50">
+      <c r="AI5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="38">
+        <v>16.5</v>
+      </c>
+      <c r="AK5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="39">
         <f t="shared" ref="AN5:AN8" si="3">SUM(B5:AI5)</f>
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="44">
-        <v>0</v>
-      </c>
-      <c r="C6" s="44">
-        <v>0</v>
-      </c>
-      <c r="D6" s="44">
-        <v>0</v>
-      </c>
-      <c r="E6" s="44">
+      <c r="B6" s="33">
+        <v>0</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
         <v>1</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="33">
         <f t="shared" ref="F6:F7" si="4">(1.5)</f>
         <v>1.5</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="33">
         <f>(1)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="33">
         <f>(0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="33">
         <f>(3.5)</f>
         <v>3.5</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="33">
         <f>(4.75)</f>
         <v>4.75</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="33">
         <f t="shared" ref="K6:P12" si="5">(0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="33">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="33">
         <f>(5.5)</f>
         <v>5.5</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="41">
         <f>(6.25)</f>
         <v>6.25</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="41">
         <f>(13)</f>
         <v>13</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U6" s="41">
         <v>8</v>
       </c>
-      <c r="V6" s="52">
+      <c r="V6" s="41">
         <v>29</v>
       </c>
-      <c r="W6" s="52">
+      <c r="W6" s="41">
         <v>7.5</v>
       </c>
-      <c r="X6" s="52">
+      <c r="X6" s="41">
         <v>9</v>
       </c>
-      <c r="Y6" s="52">
+      <c r="Y6" s="41">
         <v>5</v>
       </c>
-      <c r="Z6" s="53">
+      <c r="Z6" s="42">
         <v>6</v>
       </c>
-      <c r="AA6" s="53">
+      <c r="AA6" s="42">
         <v>8.25</v>
       </c>
-      <c r="AB6" s="53">
+      <c r="AB6" s="42">
         <v>9.25</v>
       </c>
-      <c r="AC6" s="53">
+      <c r="AC6" s="42">
         <v>5.75</v>
       </c>
-      <c r="AD6" s="52">
+      <c r="AD6" s="41">
         <v>18.5</v>
       </c>
-      <c r="AE6" s="52">
+      <c r="AE6" s="41">
         <v>18.5</v>
       </c>
-      <c r="AF6" s="52">
+      <c r="AF6" s="41">
         <v>13.5</v>
       </c>
-      <c r="AG6" s="52">
+      <c r="AG6" s="41">
         <v>5.75</v>
       </c>
-      <c r="AH6" s="52">
+      <c r="AH6" s="41">
         <v>6</v>
       </c>
-      <c r="AI6" s="52">
+      <c r="AI6" s="41">
         <v>39.5</v>
       </c>
-      <c r="AJ6" s="54">
+      <c r="AJ6" s="43">
         <v>13</v>
       </c>
-      <c r="AK6" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="52">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="55">
+      <c r="AK6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="44">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="44">
-        <v>0</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="33">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="33">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="33">
         <f>(2.25)</f>
         <v>2.25</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="33">
         <f>(3.25)</f>
         <v>3.25</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="33">
         <f>(4)</f>
         <v>4</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="33">
         <f>(9.75)</f>
         <v>9.75</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="33">
         <f>(6.25)</f>
         <v>6.25</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="46">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="46">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="46">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="33">
         <f>(8.5)</f>
         <v>8.5</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="33">
         <f>(9.5)</f>
         <v>9.5</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="41">
         <f>(16.5)</f>
         <v>16.5</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="41">
         <f>(19)</f>
         <v>19</v>
       </c>
-      <c r="U7" s="52">
+      <c r="U7" s="41">
         <v>5.5</v>
       </c>
-      <c r="V7" s="52">
+      <c r="V7" s="41">
         <v>12</v>
       </c>
-      <c r="W7" s="52">
+      <c r="W7" s="41">
         <v>13.25</v>
       </c>
-      <c r="X7" s="52">
+      <c r="X7" s="41">
         <v>9</v>
       </c>
-      <c r="Y7" s="52">
+      <c r="Y7" s="41">
         <v>8.5</v>
       </c>
-      <c r="Z7" s="53">
+      <c r="Z7" s="42">
         <v>6.75</v>
       </c>
-      <c r="AA7" s="53">
+      <c r="AA7" s="42">
         <v>11.25</v>
       </c>
-      <c r="AB7" s="53">
+      <c r="AB7" s="42">
         <v>26.25</v>
       </c>
-      <c r="AC7" s="53">
+      <c r="AC7" s="42">
         <v>14.75</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="41">
         <v>5.25</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="41">
         <v>19</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="41">
         <v>13.75</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="41">
         <v>8.25</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AH7" s="41">
         <v>7.25</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AI7" s="41">
         <v>25.25</v>
       </c>
-      <c r="AJ7" s="54">
+      <c r="AJ7" s="43">
         <v>24.5</v>
       </c>
-      <c r="AK7" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="52">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="55">
+      <c r="AK7" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="41">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="44">
         <f t="shared" si="3"/>
         <v>270.5</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="44">
-        <v>0</v>
-      </c>
-      <c r="C8" s="44">
-        <v>0</v>
-      </c>
-      <c r="D8" s="44">
-        <v>0</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="B8" s="33">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33">
         <v>1</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="33">
         <f>(1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="33">
         <f>(4)</f>
         <v>4</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="33">
         <f t="shared" ref="H8:H9" si="6">(1)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="33">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="33">
         <f>(1.75)</f>
         <v>1.75</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="33">
         <f>(4.75)</f>
         <v>4.75</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="58">
+      <c r="N8" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="58">
+      <c r="O8" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="33">
         <f>(9)</f>
         <v>9</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="33">
         <v>8.5</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="41">
         <v>7</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="41">
         <f>(15)</f>
         <v>15</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U8" s="41">
         <v>4</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="41">
         <v>4.5</v>
       </c>
-      <c r="W8" s="52">
+      <c r="W8" s="41">
         <v>6.25</v>
       </c>
-      <c r="X8" s="52">
+      <c r="X8" s="41">
         <v>4</v>
       </c>
-      <c r="Y8" s="52">
+      <c r="Y8" s="41">
         <v>4.5</v>
       </c>
-      <c r="Z8" s="53">
+      <c r="Z8" s="42">
         <v>5</v>
       </c>
-      <c r="AA8" s="53">
+      <c r="AA8" s="42">
         <v>6.25</v>
       </c>
-      <c r="AB8" s="53">
+      <c r="AB8" s="42">
         <v>8.25</v>
       </c>
-      <c r="AC8" s="53">
+      <c r="AC8" s="42">
         <v>5.75</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD8" s="41">
         <v>6.5</v>
       </c>
-      <c r="AE8" s="52">
+      <c r="AE8" s="41">
         <v>10.5</v>
       </c>
-      <c r="AF8" s="52">
+      <c r="AF8" s="41">
         <v>5.75</v>
       </c>
-      <c r="AG8" s="52">
+      <c r="AG8" s="41">
         <v>5</v>
       </c>
-      <c r="AH8" s="52">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="52">
+      <c r="AH8" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="41">
         <v>1.5</v>
       </c>
-      <c r="AJ8" s="52">
+      <c r="AJ8" s="41">
         <v>3.75</v>
       </c>
-      <c r="AK8" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="52">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="55">
+      <c r="AK8" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="41">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="44">
         <f t="shared" si="3"/>
         <v>133.75</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="44">
-        <v>0</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0</v>
-      </c>
-      <c r="D9" s="44">
-        <v>0</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="33">
         <f t="shared" ref="F9:F10" si="7">(1.5)</f>
         <v>1.5</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="33">
         <f>(3.75)</f>
         <v>3.75</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="33">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="33">
         <f>(2.25)</f>
         <v>2.25</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="33">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="33">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="33">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="33">
         <v>6.5</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="41">
         <f>(9)</f>
         <v>9</v>
       </c>
-      <c r="T9" s="52">
+      <c r="T9" s="41">
         <f>(11.5)</f>
         <v>11.5</v>
       </c>
-      <c r="U9" s="52">
+      <c r="U9" s="41">
         <v>7</v>
       </c>
-      <c r="V9" s="52">
+      <c r="V9" s="41">
         <v>3.5</v>
       </c>
-      <c r="W9" s="52">
+      <c r="W9" s="41">
         <v>9.5</v>
       </c>
-      <c r="X9" s="52">
+      <c r="X9" s="41">
         <v>8</v>
       </c>
-      <c r="Y9" s="52">
+      <c r="Y9" s="41">
         <v>8</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="42">
         <v>1</v>
       </c>
-      <c r="AA9" s="53">
+      <c r="AA9" s="42">
         <v>1</v>
       </c>
-      <c r="AB9" s="53">
+      <c r="AB9" s="42">
         <v>7</v>
       </c>
-      <c r="AC9" s="53">
+      <c r="AC9" s="42">
         <v>10.5</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="41">
         <v>12.25</v>
       </c>
-      <c r="AE9" s="52">
+      <c r="AE9" s="41">
         <v>1.25</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="41">
         <v>10</v>
       </c>
-      <c r="AG9" s="52">
+      <c r="AG9" s="41">
         <v>13.5</v>
       </c>
-      <c r="AH9" s="52">
+      <c r="AH9" s="41">
         <v>13.5</v>
       </c>
-      <c r="AI9" s="52">
+      <c r="AI9" s="41">
         <v>9.5</v>
       </c>
-      <c r="AJ9" s="54">
+      <c r="AJ9" s="43">
         <v>13.75</v>
       </c>
-      <c r="AK9" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="52">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="55">
+      <c r="AK9" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="41">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="44">
         <f t="shared" ref="AN9:AN12" si="8">SUM(B9:AM9)</f>
         <v>178.75</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="44">
-        <v>0</v>
-      </c>
-      <c r="C10" s="44">
-        <v>0</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="B10" s="33">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
         <v>1</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="33">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="33">
         <f>(8)</f>
         <v>8</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="33">
         <f>(4.5)</f>
         <v>4.5</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="33">
         <f>(7.5)</f>
         <v>7.5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="33">
         <f t="shared" ref="J10:K10" si="9">(4)</f>
         <v>4</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="33">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M10" s="58">
+      <c r="M10" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="33">
         <f>(6)</f>
         <v>6</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="33">
         <f>(4.75)</f>
         <v>4.75</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="41">
         <f>(7)</f>
         <v>7</v>
       </c>
-      <c r="T10" s="52">
+      <c r="T10" s="41">
         <f>(12)</f>
         <v>12</v>
       </c>
-      <c r="U10" s="52">
+      <c r="U10" s="41">
         <v>7</v>
       </c>
-      <c r="V10" s="52">
+      <c r="V10" s="41">
         <v>3.5</v>
       </c>
-      <c r="W10" s="52">
+      <c r="W10" s="41">
         <v>13.25</v>
       </c>
-      <c r="X10" s="52">
+      <c r="X10" s="41">
         <v>12.5</v>
       </c>
-      <c r="Y10" s="52">
+      <c r="Y10" s="41">
         <v>15.25</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="42">
         <v>12</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="42">
         <v>11.5</v>
       </c>
-      <c r="AB10" s="53">
+      <c r="AB10" s="42">
         <v>6.5</v>
       </c>
-      <c r="AC10" s="53">
+      <c r="AC10" s="42">
         <v>9</v>
       </c>
-      <c r="AD10" s="52">
+      <c r="AD10" s="41">
         <v>2.25</v>
       </c>
-      <c r="AE10" s="52">
+      <c r="AE10" s="41">
         <v>16.5</v>
       </c>
-      <c r="AF10" s="52">
+      <c r="AF10" s="41">
         <v>26</v>
       </c>
-      <c r="AG10" s="52">
+      <c r="AG10" s="41">
         <v>14.25</v>
       </c>
-      <c r="AH10" s="52">
+      <c r="AH10" s="41">
         <v>18.5</v>
       </c>
-      <c r="AI10" s="52">
+      <c r="AI10" s="41">
         <v>33</v>
       </c>
-      <c r="AJ10" s="54">
-        <v>34.25</v>
-      </c>
-      <c r="AK10" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="52">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="55">
+      <c r="AJ10" s="43">
+        <v>37.25</v>
+      </c>
+      <c r="AK10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="44">
         <f t="shared" si="8"/>
-        <v>295.5</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="44">
-        <v>0</v>
-      </c>
-      <c r="C11" s="44">
-        <v>0</v>
-      </c>
-      <c r="D11" s="44">
-        <v>0</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="B11" s="33">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="33">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="33">
         <f>(1)</f>
         <v>1</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="33">
         <f>(2.5)</f>
         <v>2.5</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="33">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="33">
         <f>(9.5)</f>
         <v>9.5</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="33">
         <f>(4.75)</f>
         <v>4.75</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="33">
         <f>(15.5)</f>
         <v>15.5</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="33">
         <f>(17.25)</f>
         <v>17.25</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="41">
         <f>(8.5)</f>
         <v>8.5</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="41">
         <f>(18)</f>
         <v>18</v>
       </c>
-      <c r="U11" s="52">
+      <c r="U11" s="41">
         <v>9.5</v>
       </c>
-      <c r="V11" s="52">
+      <c r="V11" s="41">
         <v>18.5</v>
       </c>
-      <c r="W11" s="52">
+      <c r="W11" s="41">
         <v>9.5</v>
       </c>
-      <c r="X11" s="52">
+      <c r="X11" s="41">
         <v>10.5</v>
       </c>
-      <c r="Y11" s="52">
+      <c r="Y11" s="41">
         <v>12.25</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="42">
         <v>1.5</v>
       </c>
-      <c r="AA11" s="53">
+      <c r="AA11" s="42">
         <v>6.75</v>
       </c>
-      <c r="AB11" s="53">
+      <c r="AB11" s="42">
         <v>7.5</v>
       </c>
-      <c r="AC11" s="53">
+      <c r="AC11" s="42">
         <v>18.5</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AD11" s="41">
         <v>17</v>
       </c>
-      <c r="AE11" s="52">
+      <c r="AE11" s="41">
         <v>23.75</v>
       </c>
-      <c r="AF11" s="52">
+      <c r="AF11" s="41">
         <v>22</v>
       </c>
-      <c r="AG11" s="52">
+      <c r="AG11" s="41">
         <v>2.75</v>
       </c>
-      <c r="AH11" s="52">
+      <c r="AH11" s="41">
         <v>19.25</v>
       </c>
-      <c r="AI11" s="52">
+      <c r="AI11" s="41">
         <v>20.25</v>
       </c>
-      <c r="AJ11" s="54">
+      <c r="AJ11" s="43">
         <v>21.25</v>
       </c>
-      <c r="AK11" s="52">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="52">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="52">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="55">
+      <c r="AK11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="41">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="44">
         <f t="shared" si="8"/>
         <v>304.75</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="44">
-        <v>0</v>
-      </c>
-      <c r="C12" s="44">
-        <v>0</v>
-      </c>
-      <c r="D12" s="44">
-        <v>0</v>
-      </c>
-      <c r="E12" s="44">
+      <c r="B12" s="33">
+        <v>0</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33">
         <v>1</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="33">
         <f>(1)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="33">
         <f>(0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="33">
         <f>(1)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="33">
         <f>(1.5)</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="33">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="33">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="58">
+      <c r="O12" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="33">
         <f>(3.25)</f>
         <v>3.25</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="33">
         <f>(3.5)</f>
         <v>3.5</v>
       </c>
-      <c r="S12" s="60">
+      <c r="S12" s="49">
         <f>(3)</f>
         <v>3</v>
       </c>
-      <c r="T12" s="60">
+      <c r="T12" s="49">
         <f>(1)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="60">
+      <c r="U12" s="49">
         <v>3</v>
       </c>
-      <c r="V12" s="60">
+      <c r="V12" s="49">
         <v>4.5</v>
       </c>
-      <c r="W12" s="60">
+      <c r="W12" s="49">
         <v>7.25</v>
       </c>
-      <c r="X12" s="60">
+      <c r="X12" s="49">
         <v>7.5</v>
       </c>
-      <c r="Y12" s="60">
+      <c r="Y12" s="49">
         <v>3.5</v>
       </c>
-      <c r="Z12" s="61">
+      <c r="Z12" s="50">
         <v>0.25</v>
       </c>
-      <c r="AA12" s="61">
+      <c r="AA12" s="50">
         <v>12</v>
       </c>
-      <c r="AB12" s="61">
+      <c r="AB12" s="50">
         <v>12.25</v>
       </c>
-      <c r="AC12" s="61">
+      <c r="AC12" s="50">
         <v>14.75</v>
       </c>
-      <c r="AD12" s="60">
+      <c r="AD12" s="49">
         <v>7</v>
       </c>
-      <c r="AE12" s="60">
+      <c r="AE12" s="49">
         <v>15.5</v>
       </c>
-      <c r="AF12" s="60">
+      <c r="AF12" s="49">
         <v>6.75</v>
       </c>
-      <c r="AG12" s="60">
+      <c r="AG12" s="49">
         <v>12.25</v>
       </c>
-      <c r="AH12" s="60">
+      <c r="AH12" s="49">
         <v>8.5</v>
       </c>
-      <c r="AI12" s="60">
+      <c r="AI12" s="49">
         <v>7.75</v>
       </c>
-      <c r="AJ12" s="62">
-        <v>8.25</v>
-      </c>
-      <c r="AK12" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="60">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="60">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="55">
+      <c r="AJ12" s="51">
+        <v>15.25</v>
+      </c>
+      <c r="AK12" s="49">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="49">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="49">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="44">
         <f t="shared" si="8"/>
-        <v>154.25</v>
+        <v>161.25</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="25"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="100"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="65">
-        <f t="shared" ref="B14:AI14" si="10">SUM(B5:B12)*12.5</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="65">
+      <c r="B14" s="53">
+        <f t="shared" ref="B14:AH14" si="10">SUM(B5:B12)*12.5</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="53">
         <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="53">
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="53">
         <f t="shared" si="10"/>
         <v>143.75</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="53">
         <f t="shared" si="10"/>
         <v>256.25</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="53">
         <f t="shared" si="10"/>
         <v>165.625</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="53">
         <f t="shared" si="10"/>
         <v>309.375</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="53">
         <f t="shared" si="10"/>
         <v>446.875</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="53">
         <f t="shared" si="10"/>
         <v>409.375</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="55">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N14" s="67">
+      <c r="N14" s="55">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="55">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="65">
+      <c r="P14" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="65">
+      <c r="Q14" s="53">
         <f t="shared" si="10"/>
         <v>684.375</v>
       </c>
-      <c r="R14" s="65">
+      <c r="R14" s="53">
         <f t="shared" si="10"/>
         <v>768.75</v>
       </c>
-      <c r="S14" s="65">
+      <c r="S14" s="53">
         <f t="shared" si="10"/>
         <v>740.625</v>
       </c>
-      <c r="T14" s="65">
+      <c r="T14" s="53">
         <f t="shared" si="10"/>
         <v>1193.75</v>
       </c>
-      <c r="U14" s="65">
+      <c r="U14" s="53">
         <f t="shared" si="10"/>
         <v>643.75</v>
       </c>
-      <c r="V14" s="65">
+      <c r="V14" s="53">
         <f t="shared" si="10"/>
         <v>981.25</v>
       </c>
-      <c r="W14" s="65">
+      <c r="W14" s="53">
         <f t="shared" si="10"/>
         <v>934.375</v>
       </c>
-      <c r="X14" s="65">
+      <c r="X14" s="53">
         <f t="shared" si="10"/>
         <v>843.75</v>
       </c>
-      <c r="Y14" s="65">
+      <c r="Y14" s="53">
         <f t="shared" si="10"/>
         <v>734.375</v>
       </c>
-      <c r="Z14" s="68">
+      <c r="Z14" s="56">
         <f t="shared" si="10"/>
         <v>406.25</v>
       </c>
-      <c r="AA14" s="69">
+      <c r="AA14" s="57">
         <f t="shared" si="10"/>
         <v>815.625</v>
       </c>
-      <c r="AB14" s="69">
+      <c r="AB14" s="57">
         <f t="shared" si="10"/>
         <v>1093.75</v>
       </c>
-      <c r="AC14" s="69">
+      <c r="AC14" s="57">
         <f t="shared" si="10"/>
         <v>1215.625</v>
       </c>
-      <c r="AD14" s="65">
+      <c r="AD14" s="53">
         <f t="shared" si="10"/>
         <v>965.625</v>
       </c>
-      <c r="AE14" s="65">
+      <c r="AE14" s="53">
         <f t="shared" si="10"/>
         <v>1437.5</v>
       </c>
-      <c r="AF14" s="65">
+      <c r="AF14" s="53">
         <f t="shared" si="10"/>
         <v>1371.875</v>
       </c>
-      <c r="AG14" s="65">
+      <c r="AG14" s="53">
         <f t="shared" si="10"/>
         <v>790.625</v>
       </c>
-      <c r="AH14" s="65">
+      <c r="AH14" s="53">
         <f t="shared" si="10"/>
         <v>950</v>
       </c>
-      <c r="AI14" s="65">
+      <c r="AI14" s="53">
         <f>SUM(AI5:AI12)*12.5</f>
         <v>1709.375</v>
       </c>
-      <c r="AJ14" s="65">
-        <v>1515.625</v>
-      </c>
-      <c r="AK14" s="65">
+      <c r="AJ14" s="53">
+        <f>SUM(AJ5:AJ12)*12.5</f>
+        <v>1815.625</v>
+      </c>
+      <c r="AK14" s="53">
         <f t="shared" ref="AK14:AM14" si="11">SUM(AK5:AK12)*12.5</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="65">
+      <c r="AL14" s="53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="65">
+      <c r="AM14" s="53">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="70">
+      <c r="AN14" s="58">
         <f>SUM(B14:AM14)</f>
-        <v>21665.625</v>
+        <v>21965.625</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="65">
-        <v>0</v>
-      </c>
-      <c r="C15" s="65">
-        <v>0</v>
-      </c>
-      <c r="D15" s="65">
-        <v>0</v>
-      </c>
-      <c r="E15" s="65">
-        <v>0</v>
-      </c>
-      <c r="F15" s="65">
-        <v>0</v>
-      </c>
-      <c r="G15" s="65">
-        <v>0</v>
-      </c>
-      <c r="H15" s="65">
-        <v>0</v>
-      </c>
-      <c r="I15" s="65">
-        <v>0</v>
-      </c>
-      <c r="J15" s="65">
-        <v>0</v>
-      </c>
-      <c r="K15" s="65">
-        <v>0</v>
-      </c>
-      <c r="L15" s="68">
-        <v>0</v>
-      </c>
-      <c r="M15" s="69">
-        <v>0</v>
-      </c>
-      <c r="N15" s="69">
-        <v>0</v>
-      </c>
-      <c r="O15" s="69">
-        <v>0</v>
-      </c>
-      <c r="P15" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="65">
-        <v>0</v>
-      </c>
-      <c r="R15" s="65">
-        <v>0</v>
-      </c>
-      <c r="S15" s="65">
-        <v>0</v>
-      </c>
-      <c r="T15" s="65">
-        <v>0</v>
-      </c>
-      <c r="U15" s="65">
-        <v>0</v>
-      </c>
-      <c r="V15" s="72">
+      <c r="B15" s="53">
+        <v>0</v>
+      </c>
+      <c r="C15" s="53">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+      <c r="K15" s="53">
+        <v>0</v>
+      </c>
+      <c r="L15" s="56">
+        <v>0</v>
+      </c>
+      <c r="M15" s="57">
+        <v>0</v>
+      </c>
+      <c r="N15" s="57">
+        <v>0</v>
+      </c>
+      <c r="O15" s="57">
+        <v>0</v>
+      </c>
+      <c r="P15" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="53">
+        <v>0</v>
+      </c>
+      <c r="R15" s="53">
+        <v>0</v>
+      </c>
+      <c r="S15" s="53">
+        <v>0</v>
+      </c>
+      <c r="T15" s="53">
+        <v>0</v>
+      </c>
+      <c r="U15" s="53">
+        <v>0</v>
+      </c>
+      <c r="V15" s="60">
         <v>1000</v>
       </c>
-      <c r="W15" s="72">
+      <c r="W15" s="60">
         <v>1000</v>
       </c>
-      <c r="X15" s="72">
+      <c r="X15" s="60">
         <v>950</v>
       </c>
-      <c r="Y15" s="72">
+      <c r="Y15" s="60">
         <v>950</v>
       </c>
-      <c r="Z15" s="73">
+      <c r="Z15" s="61">
         <v>900</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="AA15" s="61">
         <v>900</v>
       </c>
-      <c r="AB15" s="73">
+      <c r="AB15" s="61">
         <v>925</v>
       </c>
-      <c r="AC15" s="73">
+      <c r="AC15" s="61">
         <v>925</v>
       </c>
-      <c r="AD15" s="72">
+      <c r="AD15" s="60">
         <v>900</v>
       </c>
-      <c r="AE15" s="72">
+      <c r="AE15" s="60">
         <v>900</v>
       </c>
-      <c r="AF15" s="72">
+      <c r="AF15" s="60">
         <v>950</v>
       </c>
-      <c r="AG15" s="72">
+      <c r="AG15" s="60">
         <v>950</v>
       </c>
-      <c r="AH15" s="72">
+      <c r="AH15" s="60">
         <v>900</v>
       </c>
-      <c r="AI15" s="72">
+      <c r="AI15" s="60">
         <v>900</v>
       </c>
-      <c r="AJ15" s="72">
+      <c r="AJ15" s="60">
         <v>900</v>
       </c>
-      <c r="AK15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="75">
-        <f>SUM(AK15:AM15)</f>
-        <v>0</v>
-      </c>
+      <c r="AK15" s="62">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="62">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="62">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="63"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="64">
         <f t="shared" ref="B16:U17" si="12">(0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R16" s="76">
+      <c r="R16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U16" s="76">
+      <c r="U16" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V16" s="76">
+      <c r="V16" s="64">
         <f t="shared" ref="V16:AJ16" si="13">V15-V14</f>
         <v>18.75</v>
       </c>
-      <c r="W16" s="76">
+      <c r="W16" s="64">
         <f t="shared" si="13"/>
         <v>65.625</v>
       </c>
-      <c r="X16" s="76">
+      <c r="X16" s="64">
         <f t="shared" si="13"/>
         <v>106.25</v>
       </c>
-      <c r="Y16" s="76">
+      <c r="Y16" s="64">
         <f t="shared" si="13"/>
         <v>215.625</v>
       </c>
-      <c r="Z16" s="66">
+      <c r="Z16" s="54">
         <f t="shared" si="13"/>
         <v>493.75</v>
       </c>
-      <c r="AA16" s="66">
+      <c r="AA16" s="54">
         <f t="shared" si="13"/>
         <v>84.375</v>
       </c>
-      <c r="AB16" s="66">
+      <c r="AB16" s="54">
         <f t="shared" si="13"/>
         <v>-168.75</v>
       </c>
-      <c r="AC16" s="66">
+      <c r="AC16" s="54">
         <f t="shared" si="13"/>
         <v>-290.625</v>
       </c>
-      <c r="AD16" s="76">
+      <c r="AD16" s="64">
         <f t="shared" si="13"/>
         <v>-65.625</v>
       </c>
-      <c r="AE16" s="76">
+      <c r="AE16" s="64">
         <f t="shared" si="13"/>
         <v>-537.5</v>
       </c>
-      <c r="AF16" s="76">
+      <c r="AF16" s="64">
         <f t="shared" si="13"/>
         <v>-421.875</v>
       </c>
-      <c r="AG16" s="76">
+      <c r="AG16" s="64">
         <f t="shared" si="13"/>
         <v>159.375</v>
       </c>
-      <c r="AH16" s="76">
+      <c r="AH16" s="64">
         <f t="shared" si="13"/>
         <v>-50</v>
       </c>
-      <c r="AI16" s="76">
+      <c r="AI16" s="64">
         <f t="shared" si="13"/>
         <v>-809.375</v>
       </c>
-      <c r="AJ16" s="76">
+      <c r="AJ16" s="64">
         <f t="shared" si="13"/>
-        <v>-615.625</v>
-      </c>
-      <c r="AK16" s="76">
+        <v>-915.625</v>
+      </c>
+      <c r="AK16" s="64">
         <f t="shared" ref="AK16:AM16" si="14">(0)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="76">
+      <c r="AL16" s="64">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="76">
+      <c r="AM16" s="64">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="75">
+      <c r="AN16" s="63">
         <f>SUM(V16:AK16)</f>
-        <v>-1815.625</v>
+        <v>-2115.625</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L17" s="68">
+      <c r="L17" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="64">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="77">
+      <c r="Q17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S17" s="77">
+      <c r="S17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T17" s="77">
+      <c r="T17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="77">
+      <c r="U17" s="65">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V17" s="77">
-        <f t="shared" ref="V17:AN17" si="15">(0)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="77">
+      <c r="V17" s="65">
+        <f t="shared" ref="V17:AI17" si="15">(0)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X17" s="77">
+      <c r="X17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="77">
+      <c r="Y17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="66">
+      <c r="Z17" s="54">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="66">
+      <c r="AA17" s="54">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="66">
+      <c r="AB17" s="54">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="66">
+      <c r="AC17" s="54">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="76">
+      <c r="AD17" s="64">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="77">
+      <c r="AE17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="77">
+      <c r="AF17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="77">
+      <c r="AG17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="77">
+      <c r="AH17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="77">
+      <c r="AI17" s="65">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="75"/>
+      <c r="AJ17" s="65">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="65">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="65">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="63"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="79">
-        <v>0</v>
-      </c>
-      <c r="C18" s="79">
-        <v>0</v>
-      </c>
-      <c r="D18" s="79">
-        <v>0</v>
-      </c>
-      <c r="E18" s="79">
-        <v>0</v>
-      </c>
-      <c r="F18" s="79">
-        <v>0</v>
-      </c>
-      <c r="G18" s="79">
-        <v>0</v>
-      </c>
-      <c r="H18" s="79">
-        <v>0</v>
-      </c>
-      <c r="I18" s="79">
-        <v>0</v>
-      </c>
-      <c r="J18" s="79">
-        <v>0</v>
-      </c>
-      <c r="K18" s="79">
-        <v>0</v>
-      </c>
-      <c r="L18" s="68">
-        <v>0</v>
-      </c>
-      <c r="M18" s="69">
-        <v>0</v>
-      </c>
-      <c r="N18" s="69">
-        <v>0</v>
-      </c>
-      <c r="O18" s="69">
-        <v>0</v>
-      </c>
-      <c r="P18" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="79">
-        <v>0</v>
-      </c>
-      <c r="R18" s="79">
-        <v>0</v>
-      </c>
-      <c r="S18" s="79">
-        <v>0</v>
-      </c>
-      <c r="T18" s="79">
-        <v>0</v>
-      </c>
-      <c r="U18" s="79">
-        <v>0</v>
-      </c>
-      <c r="V18" s="79">
-        <v>0</v>
-      </c>
-      <c r="W18" s="79">
-        <v>0</v>
-      </c>
-      <c r="X18" s="79">
+      <c r="B18" s="67">
+        <v>0</v>
+      </c>
+      <c r="C18" s="67">
+        <v>0</v>
+      </c>
+      <c r="D18" s="67">
+        <v>0</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0</v>
+      </c>
+      <c r="F18" s="67">
+        <v>0</v>
+      </c>
+      <c r="G18" s="67">
+        <v>0</v>
+      </c>
+      <c r="H18" s="67">
+        <v>0</v>
+      </c>
+      <c r="I18" s="67">
+        <v>0</v>
+      </c>
+      <c r="J18" s="67">
+        <v>0</v>
+      </c>
+      <c r="K18" s="67">
+        <v>0</v>
+      </c>
+      <c r="L18" s="56">
+        <v>0</v>
+      </c>
+      <c r="M18" s="57">
+        <v>0</v>
+      </c>
+      <c r="N18" s="57">
+        <v>0</v>
+      </c>
+      <c r="O18" s="57">
+        <v>0</v>
+      </c>
+      <c r="P18" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>0</v>
+      </c>
+      <c r="R18" s="67">
+        <v>0</v>
+      </c>
+      <c r="S18" s="67">
+        <v>0</v>
+      </c>
+      <c r="T18" s="67">
+        <v>0</v>
+      </c>
+      <c r="U18" s="67">
+        <v>0</v>
+      </c>
+      <c r="V18" s="67">
+        <v>0</v>
+      </c>
+      <c r="W18" s="67">
+        <v>0</v>
+      </c>
+      <c r="X18" s="67">
         <f t="shared" ref="X18:AD18" si="16">(($W$35-W31)*0.1686)/52</f>
         <v>111.45432692307692</v>
       </c>
-      <c r="Y18" s="79">
+      <c r="Y18" s="67">
         <f t="shared" si="16"/>
         <v>111.09295770155326</v>
       </c>
-      <c r="Z18" s="66">
+      <c r="Z18" s="54">
         <f t="shared" si="16"/>
         <v>110.73276015023632</v>
       </c>
-      <c r="AA18" s="66">
+      <c r="AA18" s="54">
         <f t="shared" si="16"/>
         <v>110.37373047021073</v>
       </c>
-      <c r="AB18" s="66">
+      <c r="AB18" s="54">
         <f t="shared" si="16"/>
         <v>110.01586487487847</v>
       </c>
-      <c r="AC18" s="66">
+      <c r="AC18" s="54">
         <f t="shared" si="16"/>
         <v>109.65915958991876</v>
       </c>
-      <c r="AD18" s="79">
+      <c r="AD18" s="67">
         <f t="shared" si="16"/>
         <v>109.30361085324837</v>
       </c>
-      <c r="AE18" s="79">
+      <c r="AE18" s="67">
         <f t="shared" ref="AE18:AI18" si="17">(($W$35+$AD$35-AD31)*0.1686)/52</f>
         <v>175.82181106882805</v>
       </c>
-      <c r="AF18" s="79">
+      <c r="AF18" s="67">
         <f t="shared" si="17"/>
         <v>175.25174265832408</v>
       </c>
-      <c r="AG18" s="79">
+      <c r="AG18" s="67">
         <f t="shared" si="17"/>
         <v>174.6835225850127</v>
       </c>
-      <c r="AH18" s="79">
+      <c r="AH18" s="67">
         <f t="shared" si="17"/>
         <v>174.1171448560159</v>
       </c>
-      <c r="AI18" s="79">
+      <c r="AI18" s="67">
         <f t="shared" si="17"/>
         <v>173.55260349788659</v>
       </c>
-      <c r="AJ18" s="77">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="77">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="77">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="80">
+      <c r="AJ18" s="65">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="65">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="65">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="68">
         <f t="shared" ref="AN18:AN21" si="18">SUM(B18:AM18)</f>
         <v>1646.0592352291901</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="64">
         <v>632.70000000000005</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="L19" s="68">
+      <c r="L19" s="56">
         <v>632.70000000000005</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="57">
         <v>632.70000000000005</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="57">
         <v>632.70000000000005</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O19" s="57">
         <v>632.70000000000005</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="64">
         <v>632.70000000000005</v>
       </c>
-      <c r="Q19" s="77">
+      <c r="Q19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="S19" s="77">
+      <c r="S19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="T19" s="77">
+      <c r="T19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="U19" s="77">
+      <c r="U19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="V19" s="77">
+      <c r="V19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="W19" s="77">
+      <c r="W19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="X19" s="77">
+      <c r="X19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="Y19" s="77">
+      <c r="Y19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="Z19" s="66">
+      <c r="Z19" s="54">
         <v>632.70000000000005</v>
       </c>
-      <c r="AA19" s="66">
+      <c r="AA19" s="54">
         <v>632.70000000000005</v>
       </c>
-      <c r="AB19" s="66">
+      <c r="AB19" s="54">
         <v>632.70000000000005</v>
       </c>
-      <c r="AC19" s="66">
+      <c r="AC19" s="54">
         <v>632.70000000000005</v>
       </c>
-      <c r="AD19" s="76">
+      <c r="AD19" s="64">
         <v>632.70000000000005</v>
       </c>
-      <c r="AE19" s="77">
+      <c r="AE19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="AF19" s="77">
+      <c r="AF19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="AG19" s="77">
+      <c r="AG19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="AH19" s="77">
+      <c r="AH19" s="65">
         <v>632.70000000000005</v>
       </c>
-      <c r="AI19" s="77">
+      <c r="AI19" s="65">
         <f>632.7*5</f>
         <v>3163.5</v>
       </c>
-      <c r="AJ19" s="77">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="77">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="77">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="75">
+      <c r="AJ19" s="65">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="65">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="65">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="63">
         <f t="shared" si="18"/>
         <v>24042.600000000013</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="64">
         <v>50</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="64">
         <v>50</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="64">
         <v>50</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="64">
         <v>50</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="64">
         <v>50</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="64">
         <v>50</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="64">
         <v>50</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="64">
         <v>50</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="64">
         <v>50</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="64">
         <v>50</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="54">
         <v>50</v>
       </c>
-      <c r="M20" s="66">
+      <c r="M20" s="54">
         <v>50</v>
       </c>
-      <c r="N20" s="66">
+      <c r="N20" s="54">
         <v>50</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="54">
         <v>50</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="64">
         <v>50</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="64">
         <v>50</v>
       </c>
-      <c r="R20" s="76">
+      <c r="R20" s="64">
         <v>50</v>
       </c>
-      <c r="S20" s="76">
+      <c r="S20" s="64">
         <v>50</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="64">
         <v>50</v>
       </c>
-      <c r="U20" s="76">
+      <c r="U20" s="64">
         <v>50</v>
       </c>
-      <c r="V20" s="76">
+      <c r="V20" s="64">
         <v>50</v>
       </c>
-      <c r="W20" s="76">
+      <c r="W20" s="64">
         <v>50</v>
       </c>
-      <c r="X20" s="76">
+      <c r="X20" s="64">
         <v>50</v>
       </c>
-      <c r="Y20" s="76">
+      <c r="Y20" s="64">
         <v>50</v>
       </c>
-      <c r="Z20" s="68">
+      <c r="Z20" s="56">
         <v>50</v>
       </c>
-      <c r="AA20" s="68">
+      <c r="AA20" s="56">
         <v>50</v>
       </c>
-      <c r="AB20" s="68">
+      <c r="AB20" s="56">
         <v>50</v>
       </c>
-      <c r="AC20" s="68">
+      <c r="AC20" s="56">
         <v>50</v>
       </c>
-      <c r="AD20" s="76">
+      <c r="AD20" s="64">
         <v>50</v>
       </c>
-      <c r="AE20" s="76">
+      <c r="AE20" s="64">
         <v>50</v>
       </c>
-      <c r="AF20" s="76">
+      <c r="AF20" s="64">
         <v>50</v>
       </c>
-      <c r="AG20" s="76">
+      <c r="AG20" s="64">
         <v>50</v>
       </c>
-      <c r="AH20" s="76">
+      <c r="AH20" s="64">
         <v>50</v>
       </c>
-      <c r="AI20" s="76">
+      <c r="AI20" s="64">
         <f>50*5</f>
         <v>250</v>
       </c>
-      <c r="AJ20" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="76">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="76">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="75">
+      <c r="AJ20" s="64">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="64">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="64">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="64">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="63">
         <f t="shared" si="18"/>
         <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="64">
         <v>100</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="64">
         <v>100</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="64">
         <v>100</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="64">
         <v>100</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="64">
         <v>100</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="64">
         <v>100</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="64">
         <v>100</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="64">
         <v>100</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="64">
         <v>100</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="64">
         <v>100</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="54">
         <v>100</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="54">
         <v>100</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="54">
         <v>100</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O21" s="54">
         <v>100</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="64">
         <v>100</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="64">
         <v>100</v>
       </c>
-      <c r="R21" s="76">
+      <c r="R21" s="64">
         <v>100</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="64">
         <v>100</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="64">
         <v>100</v>
       </c>
-      <c r="U21" s="76">
+      <c r="U21" s="64">
         <v>100</v>
       </c>
-      <c r="V21" s="76">
+      <c r="V21" s="64">
         <v>100</v>
       </c>
-      <c r="W21" s="76">
+      <c r="W21" s="64">
         <v>100</v>
       </c>
-      <c r="X21" s="76">
+      <c r="X21" s="64">
         <v>100</v>
       </c>
-      <c r="Y21" s="76">
+      <c r="Y21" s="64">
         <v>100</v>
       </c>
-      <c r="Z21" s="68">
+      <c r="Z21" s="56">
         <v>100</v>
       </c>
-      <c r="AA21" s="68">
+      <c r="AA21" s="56">
         <v>100</v>
       </c>
-      <c r="AB21" s="68">
+      <c r="AB21" s="56">
         <v>100</v>
       </c>
-      <c r="AC21" s="68">
+      <c r="AC21" s="56">
         <v>100</v>
       </c>
-      <c r="AD21" s="76">
+      <c r="AD21" s="64">
         <v>100</v>
       </c>
-      <c r="AE21" s="76">
+      <c r="AE21" s="64">
         <v>100</v>
       </c>
-      <c r="AF21" s="76">
+      <c r="AF21" s="64">
         <v>100</v>
       </c>
-      <c r="AG21" s="76">
+      <c r="AG21" s="64">
         <v>100</v>
       </c>
-      <c r="AH21" s="76">
+      <c r="AH21" s="64">
         <v>100</v>
       </c>
-      <c r="AI21" s="76">
+      <c r="AI21" s="64">
         <f>100*5</f>
         <v>500</v>
       </c>
-      <c r="AJ21" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="76">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="76">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="75">
+      <c r="AJ21" s="64">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="64">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="64">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="64">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="63">
         <f t="shared" si="18"/>
         <v>3800</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="65">
         <f t="shared" ref="B22:V22" si="19">(0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M22" s="67">
+      <c r="M22" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N22" s="67">
+      <c r="N22" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O22" s="67">
+      <c r="O22" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P22" s="77">
+      <c r="P22" s="65">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R22" s="76">
+      <c r="R22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U22" s="76">
+      <c r="U22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V22" s="76">
+      <c r="V22" s="64">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W22" s="82">
+      <c r="W22" s="70">
         <f>AN22*0.25</f>
         <v>179.6</v>
       </c>
-      <c r="X22" s="83">
+      <c r="X22" s="71">
         <f t="shared" ref="X22:AD22" si="20">(0)</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="83">
+      <c r="Y22" s="71">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="84">
+      <c r="Z22" s="72">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="84">
+      <c r="AA22" s="72">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="84">
+      <c r="AB22" s="72">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="84">
+      <c r="AC22" s="72">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="79">
+      <c r="AD22" s="67">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="82">
+      <c r="AE22" s="70">
         <f>AN22*0.5</f>
         <v>359.2</v>
       </c>
-      <c r="AF22" s="82">
+      <c r="AF22" s="70">
         <f>AN22*0.25</f>
         <v>179.6</v>
       </c>
-      <c r="AG22" s="76">
+      <c r="AG22" s="64">
         <f t="shared" ref="AG22:AI22" si="21">(0)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="76">
+      <c r="AH22" s="64">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="76">
+      <c r="AI22" s="64">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="76">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="76">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="76">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="76">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="80">
+      <c r="AJ22" s="64">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="64">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="64">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="64">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="68">
         <f>718.4</f>
         <v>718.4</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="74">
         <f>0+B19</f>
         <v>632.70000000000005</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="74">
         <f t="shared" ref="C23:AM23" si="22">IF(B24, C19, B23+C19)</f>
         <v>1265.4000000000001</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="74">
         <f t="shared" si="22"/>
         <v>2530.8000000000002</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="74">
         <f t="shared" si="22"/>
         <v>1265.4000000000001</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="I23" s="86">
+      <c r="I23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="74">
         <f t="shared" si="22"/>
         <v>1265.4000000000001</v>
       </c>
-      <c r="K23" s="86">
+      <c r="K23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="M23" s="86">
+      <c r="M23" s="74">
         <f t="shared" si="22"/>
         <v>1265.4000000000001</v>
       </c>
-      <c r="N23" s="86">
+      <c r="N23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="O23" s="86">
+      <c r="O23" s="74">
         <f t="shared" si="22"/>
         <v>2530.8000000000002</v>
       </c>
-      <c r="P23" s="86">
+      <c r="P23" s="74">
         <f t="shared" si="22"/>
         <v>3163.5</v>
       </c>
-      <c r="Q23" s="86">
+      <c r="Q23" s="74">
         <f t="shared" si="22"/>
         <v>3796.2</v>
       </c>
-      <c r="R23" s="86">
+      <c r="R23" s="74">
         <f t="shared" si="22"/>
         <v>4428.8999999999996</v>
       </c>
-      <c r="S23" s="86">
+      <c r="S23" s="74">
         <f t="shared" si="22"/>
         <v>5061.5999999999995</v>
       </c>
-      <c r="T23" s="86">
+      <c r="T23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="U23" s="86">
+      <c r="U23" s="74">
         <f t="shared" si="22"/>
         <v>1265.4000000000001</v>
       </c>
-      <c r="V23" s="86">
+      <c r="V23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="W23" s="86">
+      <c r="W23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="X23" s="86">
+      <c r="X23" s="74">
         <f t="shared" si="22"/>
         <v>1265.4000000000001</v>
       </c>
-      <c r="Y23" s="86">
+      <c r="Y23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="Z23" s="86">
+      <c r="Z23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="AA23" s="86">
+      <c r="AA23" s="74">
         <f t="shared" si="22"/>
         <v>1265.4000000000001</v>
       </c>
-      <c r="AB23" s="86">
+      <c r="AB23" s="74">
         <f t="shared" si="22"/>
         <v>1898.1000000000001</v>
       </c>
-      <c r="AC23" s="86">
+      <c r="AC23" s="74">
         <f t="shared" si="22"/>
         <v>2530.8000000000002</v>
       </c>
-      <c r="AD23" s="86">
+      <c r="AD23" s="74">
         <f t="shared" si="22"/>
         <v>3163.5</v>
       </c>
-      <c r="AE23" s="86">
+      <c r="AE23" s="74">
         <f t="shared" si="22"/>
         <v>3796.2</v>
       </c>
-      <c r="AF23" s="86">
+      <c r="AF23" s="74">
         <f t="shared" si="22"/>
         <v>4428.8999999999996</v>
       </c>
-      <c r="AG23" s="86">
+      <c r="AG23" s="74">
         <f t="shared" si="22"/>
         <v>5061.5999999999995</v>
       </c>
-      <c r="AH23" s="86">
+      <c r="AH23" s="74">
         <f t="shared" si="22"/>
         <v>632.70000000000005</v>
       </c>
-      <c r="AI23" s="86">
+      <c r="AI23" s="74">
         <f t="shared" si="22"/>
         <v>3796.2</v>
       </c>
-      <c r="AJ23" s="86">
+      <c r="AJ23" s="74">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="86">
+      <c r="AK23" s="74">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="86">
+      <c r="AL23" s="74">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="86">
+      <c r="AM23" s="74">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="87"/>
+      <c r="AN23" s="102"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89" t="b">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89" t="b">
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89" t="b">
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="89" t="b">
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="89" t="b">
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="89" t="b">
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89" t="b">
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="89" t="b">
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="88"/>
-      <c r="AN24" s="33"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="96"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="77">
         <f>0+B20</f>
         <v>50</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="77">
         <f t="shared" ref="C25:AM25" si="23">IF(B26, C20, B25+C20)</f>
         <v>100</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="77">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="77">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="77">
         <f t="shared" si="23"/>
         <v>250</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="77">
         <f t="shared" si="23"/>
         <v>300</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="77">
         <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="77">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="77">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="77">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="77">
         <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="M25" s="90">
+      <c r="M25" s="77">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="N25" s="90">
+      <c r="N25" s="77">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
-      <c r="O25" s="90">
+      <c r="O25" s="77">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="P25" s="90">
+      <c r="P25" s="77">
         <f t="shared" si="23"/>
         <v>250</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="Q25" s="77">
         <f t="shared" si="23"/>
         <v>300</v>
       </c>
-      <c r="R25" s="90">
+      <c r="R25" s="77">
         <f t="shared" si="23"/>
         <v>350</v>
       </c>
-      <c r="S25" s="90">
+      <c r="S25" s="77">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
-      <c r="T25" s="90">
+      <c r="T25" s="77">
         <f t="shared" si="23"/>
         <v>450</v>
       </c>
-      <c r="U25" s="90">
+      <c r="U25" s="77">
         <f t="shared" si="23"/>
         <v>500</v>
       </c>
-      <c r="V25" s="90">
+      <c r="V25" s="77">
         <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="W25" s="90">
+      <c r="W25" s="77">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="X25" s="90">
+      <c r="X25" s="77">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
-      <c r="Y25" s="90">
+      <c r="Y25" s="77">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="Z25" s="90">
+      <c r="Z25" s="77">
         <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="AA25" s="90">
+      <c r="AA25" s="77">
         <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="AB25" s="90">
+      <c r="AB25" s="77">
         <f t="shared" si="23"/>
         <v>150</v>
       </c>
-      <c r="AC25" s="90">
+      <c r="AC25" s="77">
         <f t="shared" si="23"/>
         <v>200</v>
       </c>
-      <c r="AD25" s="90">
+      <c r="AD25" s="77">
         <f t="shared" si="23"/>
         <v>250</v>
       </c>
-      <c r="AE25" s="90">
+      <c r="AE25" s="77">
         <f t="shared" si="23"/>
         <v>300</v>
       </c>
-      <c r="AF25" s="90">
+      <c r="AF25" s="77">
         <f t="shared" si="23"/>
         <v>350</v>
       </c>
-      <c r="AG25" s="90">
+      <c r="AG25" s="77">
         <f t="shared" si="23"/>
         <v>400</v>
       </c>
-      <c r="AH25" s="90">
+      <c r="AH25" s="77">
         <f t="shared" si="23"/>
         <v>450</v>
       </c>
-      <c r="AI25" s="90">
+      <c r="AI25" s="77">
         <f t="shared" si="23"/>
         <v>700</v>
       </c>
-      <c r="AJ25" s="90">
+      <c r="AJ25" s="77">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="90">
+      <c r="AK25" s="77">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="90">
+      <c r="AL25" s="77">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AM25" s="90">
+      <c r="AM25" s="77">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="33"/>
+      <c r="AN25" s="96"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89" t="b">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89" t="b">
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="89" t="b">
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="89" t="b">
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="89" t="b">
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
-      <c r="AN26" s="33"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="96"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="77">
         <f>0+B21</f>
         <v>100</v>
       </c>
-      <c r="C27" s="90">
+      <c r="C27" s="77">
         <f t="shared" ref="C27:AI27" si="24">IF(B28, C21, B27+C21)</f>
         <v>200</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="77">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="77">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="77">
         <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G27" s="77">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="77">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="77">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="77">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="77">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L27" s="77">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="M27" s="90">
+      <c r="M27" s="77">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="N27" s="90">
+      <c r="N27" s="77">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="O27" s="90">
+      <c r="O27" s="77">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="77">
         <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="Q27" s="90">
+      <c r="Q27" s="77">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="R27" s="90">
+      <c r="R27" s="77">
         <f t="shared" si="24"/>
         <v>700</v>
       </c>
-      <c r="S27" s="90">
+      <c r="S27" s="77">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="T27" s="90">
+      <c r="T27" s="77">
         <f t="shared" si="24"/>
         <v>900</v>
       </c>
-      <c r="U27" s="90">
+      <c r="U27" s="77">
         <f t="shared" si="24"/>
         <v>1000</v>
       </c>
-      <c r="V27" s="90">
+      <c r="V27" s="77">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="W27" s="90">
+      <c r="W27" s="77">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="X27" s="90">
+      <c r="X27" s="77">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="Y27" s="90">
+      <c r="Y27" s="77">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="Z27" s="90">
+      <c r="Z27" s="77">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="AA27" s="90">
+      <c r="AA27" s="77">
         <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="AB27" s="90">
+      <c r="AB27" s="77">
         <f t="shared" si="24"/>
         <v>300</v>
       </c>
-      <c r="AC27" s="90">
+      <c r="AC27" s="77">
         <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="AD27" s="90">
+      <c r="AD27" s="77">
         <f t="shared" si="24"/>
         <v>500</v>
       </c>
-      <c r="AE27" s="90">
+      <c r="AE27" s="77">
         <f t="shared" si="24"/>
         <v>600</v>
       </c>
-      <c r="AF27" s="90">
+      <c r="AF27" s="77">
         <f t="shared" si="24"/>
         <v>700</v>
       </c>
-      <c r="AG27" s="90">
+      <c r="AG27" s="77">
         <f t="shared" si="24"/>
         <v>800</v>
       </c>
-      <c r="AH27" s="90">
+      <c r="AH27" s="77">
         <f t="shared" si="24"/>
         <v>900</v>
       </c>
-      <c r="AI27" s="90">
+      <c r="AI27" s="77">
         <f t="shared" si="24"/>
         <v>1400</v>
       </c>
-      <c r="AJ27" s="90">
+      <c r="AJ27" s="77">
         <f t="shared" ref="AJ27:AM27" si="25">IF(AI28, AJ22, AI27+AJ22)</f>
         <v>0</v>
       </c>
-      <c r="AK27" s="90">
+      <c r="AK27" s="77">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="90">
+      <c r="AL27" s="77">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AM27" s="90">
+      <c r="AM27" s="77">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="33"/>
+      <c r="AN27" s="96"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89" t="b">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89" t="b">
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="89" t="b">
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="89" t="b">
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="89" t="b">
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="88"/>
-      <c r="AN28" s="33"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="96"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="77">
         <f>0+B22</f>
         <v>0</v>
       </c>
-      <c r="C29" s="90">
+      <c r="C29" s="77">
         <f t="shared" ref="C29:AM29" si="26">IF(B30, C22, B29+C22)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G29" s="90">
+      <c r="G29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I29" s="90">
+      <c r="I29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="L29" s="90">
+      <c r="L29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M29" s="90">
+      <c r="M29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N29" s="90">
+      <c r="N29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O29" s="90">
+      <c r="O29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P29" s="90">
+      <c r="P29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="90">
+      <c r="Q29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R29" s="90">
+      <c r="R29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S29" s="90">
+      <c r="S29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T29" s="90">
+      <c r="T29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U29" s="90">
+      <c r="U29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V29" s="90">
+      <c r="V29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W29" s="90">
+      <c r="W29" s="77">
         <f t="shared" si="26"/>
         <v>179.6</v>
       </c>
-      <c r="X29" s="90">
+      <c r="X29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="90">
+      <c r="Y29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="90">
+      <c r="Z29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="90">
+      <c r="AA29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="90">
+      <c r="AB29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="90">
+      <c r="AC29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="90">
+      <c r="AD29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="90">
+      <c r="AE29" s="77">
         <f t="shared" si="26"/>
         <v>359.2</v>
       </c>
-      <c r="AF29" s="90">
+      <c r="AF29" s="77">
         <f t="shared" si="26"/>
         <v>179.6</v>
       </c>
-      <c r="AG29" s="90">
+      <c r="AG29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AH29" s="90">
+      <c r="AH29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="90">
+      <c r="AI29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="90">
+      <c r="AJ29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="90">
+      <c r="AK29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="90">
+      <c r="AL29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="90">
+      <c r="AM29" s="77">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="33"/>
+      <c r="AN29" s="96"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="89" t="b">
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="91" t="b">
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78" t="b">
         <v>1</v>
       </c>
-      <c r="AF30" s="91" t="b">
+      <c r="AF30" s="78" t="b">
         <v>1</v>
       </c>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="91"/>
-      <c r="AJ30" s="91"/>
-      <c r="AK30" s="91"/>
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="91"/>
-      <c r="AN30" s="33"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="96"/>
     </row>
     <row r="31" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="90">
-        <v>0</v>
-      </c>
-      <c r="C31" s="90">
-        <v>0</v>
-      </c>
-      <c r="D31" s="90">
-        <v>0</v>
-      </c>
-      <c r="E31" s="90">
-        <v>0</v>
-      </c>
-      <c r="F31" s="90">
-        <v>0</v>
-      </c>
-      <c r="G31" s="90">
-        <v>0</v>
-      </c>
-      <c r="H31" s="90">
-        <v>0</v>
-      </c>
-      <c r="I31" s="90">
-        <v>0</v>
-      </c>
-      <c r="J31" s="90">
-        <v>0</v>
-      </c>
-      <c r="K31" s="90">
-        <v>0</v>
-      </c>
-      <c r="L31" s="90">
-        <v>0</v>
-      </c>
-      <c r="M31" s="90">
-        <v>0</v>
-      </c>
-      <c r="N31" s="90">
-        <v>0</v>
-      </c>
-      <c r="O31" s="90">
-        <v>0</v>
-      </c>
-      <c r="P31" s="90">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="90">
-        <v>0</v>
-      </c>
-      <c r="R31" s="90">
-        <v>0</v>
-      </c>
-      <c r="S31" s="90">
-        <v>0</v>
-      </c>
-      <c r="T31" s="90">
-        <v>0</v>
-      </c>
-      <c r="U31" s="90">
-        <v>0</v>
-      </c>
-      <c r="V31" s="90">
+      <c r="B31" s="77">
+        <v>0</v>
+      </c>
+      <c r="C31" s="77">
+        <v>0</v>
+      </c>
+      <c r="D31" s="77">
+        <v>0</v>
+      </c>
+      <c r="E31" s="77">
+        <v>0</v>
+      </c>
+      <c r="F31" s="77">
+        <v>0</v>
+      </c>
+      <c r="G31" s="77">
+        <v>0</v>
+      </c>
+      <c r="H31" s="77">
+        <v>0</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0</v>
+      </c>
+      <c r="J31" s="77">
+        <v>0</v>
+      </c>
+      <c r="K31" s="77">
+        <v>0</v>
+      </c>
+      <c r="L31" s="77">
+        <v>0</v>
+      </c>
+      <c r="M31" s="77">
+        <v>0</v>
+      </c>
+      <c r="N31" s="77">
+        <v>0</v>
+      </c>
+      <c r="O31" s="77">
+        <v>0</v>
+      </c>
+      <c r="P31" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="77">
+        <v>0</v>
+      </c>
+      <c r="R31" s="77">
+        <v>0</v>
+      </c>
+      <c r="S31" s="77">
+        <v>0</v>
+      </c>
+      <c r="T31" s="77">
+        <v>0</v>
+      </c>
+      <c r="U31" s="77">
+        <v>0</v>
+      </c>
+      <c r="V31" s="77">
         <f t="shared" ref="V31:AI31" si="27">U31+V18</f>
         <v>0</v>
       </c>
-      <c r="W31" s="90">
+      <c r="W31" s="77">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="X31" s="90">
+      <c r="X31" s="77">
         <f t="shared" si="27"/>
         <v>111.45432692307692</v>
       </c>
-      <c r="Y31" s="90">
+      <c r="Y31" s="77">
         <f t="shared" si="27"/>
         <v>222.54728462463018</v>
       </c>
-      <c r="Z31" s="90">
+      <c r="Z31" s="77">
         <f t="shared" si="27"/>
         <v>333.2800447748665</v>
       </c>
-      <c r="AA31" s="90">
+      <c r="AA31" s="77">
         <f t="shared" si="27"/>
         <v>443.65377524507721</v>
       </c>
-      <c r="AB31" s="90">
+      <c r="AB31" s="77">
         <f t="shared" si="27"/>
         <v>553.66964011995572</v>
       </c>
-      <c r="AC31" s="90">
+      <c r="AC31" s="77">
         <f t="shared" si="27"/>
         <v>663.32879970987449</v>
       </c>
-      <c r="AD31" s="90">
+      <c r="AD31" s="77">
         <f t="shared" si="27"/>
         <v>772.6324105631229</v>
       </c>
-      <c r="AE31" s="90">
+      <c r="AE31" s="77">
         <f t="shared" si="27"/>
         <v>948.45422163195099</v>
       </c>
-      <c r="AF31" s="90">
+      <c r="AF31" s="77">
         <f t="shared" si="27"/>
         <v>1123.705964290275</v>
       </c>
-      <c r="AG31" s="90">
+      <c r="AG31" s="77">
         <f t="shared" si="27"/>
         <v>1298.3894868752877</v>
       </c>
-      <c r="AH31" s="90">
+      <c r="AH31" s="77">
         <f t="shared" si="27"/>
         <v>1472.5066317313035</v>
       </c>
-      <c r="AI31" s="90">
+      <c r="AI31" s="77">
         <f t="shared" si="27"/>
         <v>1646.0592352291901</v>
       </c>
-      <c r="AJ31" s="90">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="90">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="90">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="90">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="92"/>
+      <c r="AJ31" s="77">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="77">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="77">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="77">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="103"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="94">
+      <c r="B32" s="80">
         <f t="shared" ref="B32:AM32" si="28">IF(B24, B23, 0)+IF(B26, B25, 0)+IF(B30, B29, 0)+IF(B28,B27,0)+IF(NOT(B14=0),B14, B15)+B17+B18</f>
         <v>0</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="80">
         <f t="shared" si="28"/>
         <v>12.5</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="80">
         <f t="shared" si="28"/>
         <v>2655.8</v>
       </c>
-      <c r="F32" s="94">
+      <c r="F32" s="80">
         <f t="shared" si="28"/>
         <v>143.75</v>
       </c>
-      <c r="G32" s="94">
+      <c r="G32" s="80">
         <f t="shared" si="28"/>
         <v>1156.25</v>
       </c>
-      <c r="H32" s="94">
+      <c r="H32" s="80">
         <f t="shared" si="28"/>
         <v>2063.7250000000004</v>
       </c>
-      <c r="I32" s="94">
+      <c r="I32" s="80">
         <f t="shared" si="28"/>
         <v>309.375</v>
       </c>
-      <c r="J32" s="94">
+      <c r="J32" s="80">
         <f t="shared" si="28"/>
         <v>446.875</v>
       </c>
-      <c r="K32" s="94">
+      <c r="K32" s="80">
         <f t="shared" si="28"/>
         <v>2907.4750000000004</v>
       </c>
-      <c r="L32" s="94">
+      <c r="L32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M32" s="94">
+      <c r="M32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N32" s="94">
+      <c r="N32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O32" s="94">
+      <c r="O32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="P32" s="94">
+      <c r="P32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="94">
+      <c r="Q32" s="80">
         <f t="shared" si="28"/>
         <v>684.375</v>
       </c>
-      <c r="R32" s="94">
+      <c r="R32" s="80">
         <f t="shared" si="28"/>
         <v>768.75</v>
       </c>
-      <c r="S32" s="94">
+      <c r="S32" s="80">
         <f t="shared" si="28"/>
         <v>5802.2249999999995</v>
       </c>
-      <c r="T32" s="94">
+      <c r="T32" s="80">
         <f t="shared" si="28"/>
         <v>1193.75</v>
       </c>
-      <c r="U32" s="94">
+      <c r="U32" s="80">
         <f t="shared" si="28"/>
         <v>2143.75</v>
       </c>
-      <c r="V32" s="94">
+      <c r="V32" s="80">
         <f t="shared" si="28"/>
         <v>2879.3500000000004</v>
       </c>
-      <c r="W32" s="94">
+      <c r="W32" s="80">
         <f t="shared" si="28"/>
         <v>1113.9749999999999</v>
       </c>
-      <c r="X32" s="94">
+      <c r="X32" s="80">
         <f t="shared" si="28"/>
         <v>955.20432692307691</v>
       </c>
-      <c r="Y32" s="94">
+      <c r="Y32" s="80">
         <f t="shared" si="28"/>
         <v>3343.5679577015535</v>
       </c>
-      <c r="Z32" s="94">
+      <c r="Z32" s="80">
         <f t="shared" si="28"/>
         <v>516.98276015023634</v>
       </c>
-      <c r="AA32" s="94">
+      <c r="AA32" s="80">
         <f t="shared" si="28"/>
         <v>925.99873047021072</v>
       </c>
-      <c r="AB32" s="94">
+      <c r="AB32" s="80">
         <f t="shared" si="28"/>
         <v>1203.7658648748784</v>
       </c>
-      <c r="AC32" s="94">
+      <c r="AC32" s="80">
         <f t="shared" si="28"/>
         <v>1325.2841595899188</v>
       </c>
-      <c r="AD32" s="94">
+      <c r="AD32" s="80">
         <f t="shared" si="28"/>
         <v>1074.9286108532483</v>
       </c>
-      <c r="AE32" s="94">
+      <c r="AE32" s="80">
         <f t="shared" si="28"/>
         <v>1972.5218110688281</v>
       </c>
-      <c r="AF32" s="94">
+      <c r="AF32" s="80">
         <f t="shared" si="28"/>
         <v>1726.7267426583239</v>
       </c>
-      <c r="AG32" s="94">
+      <c r="AG32" s="80">
         <f t="shared" si="28"/>
         <v>6026.9085225850122</v>
       </c>
-      <c r="AH32" s="94">
+      <c r="AH32" s="80">
         <f t="shared" si="28"/>
         <v>1124.1171448560158</v>
       </c>
-      <c r="AI32" s="94">
+      <c r="AI32" s="80">
         <f t="shared" si="28"/>
         <v>7779.1276034978864</v>
       </c>
-      <c r="AJ32" s="94">
+      <c r="AJ32" s="80">
         <f t="shared" si="28"/>
-        <v>1515.625</v>
-      </c>
-      <c r="AK32" s="94">
+        <v>1815.625</v>
+      </c>
+      <c r="AK32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="94">
+      <c r="AL32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AM32" s="94">
+      <c r="AM32" s="80">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="95">
+      <c r="AN32" s="81">
         <f>SUM(AN14:AN15,AN17:AN22)</f>
-        <v>53772.684235229208</v>
+        <v>54072.684235229208</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="24"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="25"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="99"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="99"/>
+      <c r="AN33" s="100"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="53">
         <f t="shared" ref="B34:AM36" si="29">(0)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="65">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="68">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="65">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AM34" s="74">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="96">
+      <c r="C34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="53">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="53">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="62">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="82">
         <f>SUM(B34:AM34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="79">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="79">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="79">
+      <c r="B35" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="67">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="67">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="67">
         <f>5/8*AN35</f>
         <v>34375</v>
       </c>
-      <c r="X35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="77">
+      <c r="X35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="54">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="65">
         <f>3/8*AN35</f>
         <v>20625</v>
       </c>
-      <c r="AE35" s="77">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="77">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="77">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="77">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="77">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="80">
+      <c r="AE35" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="65">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="65">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="65">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="65">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="68">
         <v>55000</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="82">
+      <c r="B36" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="70">
         <f>AN36*0.25</f>
         <v>251.44</v>
       </c>
-      <c r="X36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="67">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="77">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="82">
+      <c r="X36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="55">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="70">
         <f>AN36*0.5</f>
         <v>502.88</v>
       </c>
-      <c r="AF36" s="82">
+      <c r="AF36" s="70">
         <f>AN36*0.25</f>
         <v>251.44</v>
       </c>
-      <c r="AG36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AM36" s="76">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="97">
+      <c r="AG36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="64">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="83">
         <f>1005.76</f>
         <v>1005.76</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="74">
         <f>0+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C37" s="74">
         <f t="shared" ref="C37:AM37" si="30">IF(B38, C36, B37+C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="86">
+      <c r="D37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F37" s="86">
+      <c r="F37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H37" s="86">
+      <c r="H37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I37" s="86">
+      <c r="I37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="J37" s="86">
+      <c r="J37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K37" s="86">
+      <c r="K37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="L37" s="86">
+      <c r="L37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="M37" s="86">
+      <c r="M37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="N37" s="86">
+      <c r="N37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O37" s="86">
+      <c r="O37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P37" s="86">
+      <c r="P37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="86">
+      <c r="Q37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R37" s="86">
+      <c r="R37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S37" s="86">
+      <c r="S37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T37" s="86">
+      <c r="T37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U37" s="86">
+      <c r="U37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V37" s="86">
+      <c r="V37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W37" s="86">
+      <c r="W37" s="74">
         <f t="shared" si="30"/>
         <v>251.44</v>
       </c>
-      <c r="X37" s="86">
+      <c r="X37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="86">
+      <c r="Y37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="86">
+      <c r="Z37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="86">
+      <c r="AA37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="86">
+      <c r="AB37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="86">
+      <c r="AC37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="86">
+      <c r="AD37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="86">
+      <c r="AE37" s="74">
         <f t="shared" si="30"/>
         <v>502.88</v>
       </c>
-      <c r="AF37" s="86">
+      <c r="AF37" s="74">
         <f t="shared" si="30"/>
         <v>251.44</v>
       </c>
-      <c r="AG37" s="86">
+      <c r="AG37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="86">
+      <c r="AH37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="86">
+      <c r="AI37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AJ37" s="86">
+      <c r="AJ37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="86">
+      <c r="AK37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="86">
+      <c r="AL37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AM37" s="86">
+      <c r="AM37" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="87"/>
+      <c r="AN37" s="102"/>
     </row>
     <row r="38" spans="1:40" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="99"/>
-      <c r="S38" s="99"/>
-      <c r="T38" s="99"/>
-      <c r="U38" s="99"/>
-      <c r="V38" s="99"/>
-      <c r="W38" s="99" t="b">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85" t="b">
         <v>1</v>
       </c>
-      <c r="X38" s="99"/>
-      <c r="Y38" s="99"/>
-      <c r="Z38" s="99"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="99"/>
-      <c r="AC38" s="99"/>
-      <c r="AD38" s="99"/>
-      <c r="AE38" s="91" t="b">
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="85"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="85"/>
+      <c r="AE38" s="78" t="b">
         <v>1</v>
       </c>
-      <c r="AF38" s="91" t="b">
+      <c r="AF38" s="78" t="b">
         <v>1</v>
       </c>
-      <c r="AG38" s="99"/>
-      <c r="AH38" s="99"/>
-      <c r="AI38" s="99"/>
-      <c r="AJ38" s="99"/>
-      <c r="AK38" s="99"/>
-      <c r="AL38" s="99"/>
-      <c r="AM38" s="99"/>
-      <c r="AN38" s="92"/>
+      <c r="AG38" s="85"/>
+      <c r="AH38" s="85"/>
+      <c r="AI38" s="85"/>
+      <c r="AJ38" s="85"/>
+      <c r="AK38" s="85"/>
+      <c r="AL38" s="85"/>
+      <c r="AM38" s="85"/>
+      <c r="AN38" s="103"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="94">
+      <c r="B39" s="80">
         <f t="shared" ref="B39:AM39" si="31">IF(B38, B37, 0)+B34+B35</f>
         <v>0</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="D39" s="94">
+      <c r="D39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E39" s="94">
+      <c r="E39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F39" s="94">
+      <c r="F39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G39" s="94">
+      <c r="G39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H39" s="94">
+      <c r="H39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I39" s="94">
+      <c r="I39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J39" s="94">
+      <c r="J39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K39" s="94">
+      <c r="K39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L39" s="94">
+      <c r="L39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="M39" s="94">
+      <c r="M39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="N39" s="94">
+      <c r="N39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="O39" s="94">
+      <c r="O39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P39" s="94">
+      <c r="P39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="94">
+      <c r="Q39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R39" s="94">
+      <c r="R39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="S39" s="94">
+      <c r="S39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="T39" s="94">
+      <c r="T39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="U39" s="94">
+      <c r="U39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V39" s="94">
+      <c r="V39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W39" s="94">
+      <c r="W39" s="80">
         <f t="shared" si="31"/>
         <v>34626.44</v>
       </c>
-      <c r="X39" s="94">
+      <c r="X39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="94">
+      <c r="Y39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="94">
+      <c r="Z39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="94">
+      <c r="AA39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="94">
+      <c r="AB39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="94">
+      <c r="AC39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="94">
+      <c r="AD39" s="80">
         <f t="shared" si="31"/>
         <v>20625</v>
       </c>
-      <c r="AE39" s="94">
+      <c r="AE39" s="80">
         <f t="shared" si="31"/>
         <v>502.88</v>
       </c>
-      <c r="AF39" s="94">
+      <c r="AF39" s="80">
         <f t="shared" si="31"/>
         <v>251.44</v>
       </c>
-      <c r="AG39" s="94">
+      <c r="AG39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="94">
+      <c r="AH39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="94">
+      <c r="AI39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="94">
+      <c r="AJ39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="94">
+      <c r="AK39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="94">
+      <c r="AL39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="94">
+      <c r="AM39" s="80">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="95">
+      <c r="AN39" s="81">
         <f>SUM(B39:AM39)</f>
         <v>56005.760000000002</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="25"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="99"/>
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
+      <c r="AI40" s="99"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="99"/>
+      <c r="AN40" s="100"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="101">
+      <c r="B41" s="87">
         <f>(0)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="101">
+      <c r="C41" s="87">
         <f t="shared" ref="C41:AM41" si="32">B43</f>
         <v>0</v>
       </c>
-      <c r="D41" s="101">
+      <c r="D41" s="87">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="E41" s="101">
+      <c r="E41" s="87">
         <f t="shared" si="32"/>
         <v>-12.5</v>
       </c>
-      <c r="F41" s="101">
+      <c r="F41" s="87">
         <f t="shared" si="32"/>
         <v>-2668.3</v>
       </c>
-      <c r="G41" s="101">
+      <c r="G41" s="87">
         <f t="shared" si="32"/>
         <v>-2812.05</v>
       </c>
-      <c r="H41" s="101">
+      <c r="H41" s="87">
         <f t="shared" si="32"/>
         <v>-3968.3</v>
       </c>
-      <c r="I41" s="101">
+      <c r="I41" s="87">
         <f t="shared" si="32"/>
         <v>-6032.0250000000005</v>
       </c>
-      <c r="J41" s="101">
+      <c r="J41" s="87">
         <f t="shared" si="32"/>
         <v>-6341.4000000000005</v>
       </c>
-      <c r="K41" s="101">
+      <c r="K41" s="87">
         <f t="shared" si="32"/>
         <v>-6788.2750000000005</v>
       </c>
-      <c r="L41" s="101">
+      <c r="L41" s="87">
         <f t="shared" si="32"/>
         <v>-9695.75</v>
       </c>
-      <c r="M41" s="101">
+      <c r="M41" s="87">
         <f t="shared" si="32"/>
         <v>-9695.75</v>
       </c>
-      <c r="N41" s="101">
+      <c r="N41" s="87">
         <f t="shared" si="32"/>
         <v>-9695.75</v>
       </c>
-      <c r="O41" s="101">
+      <c r="O41" s="87">
         <f t="shared" si="32"/>
         <v>-9695.75</v>
       </c>
-      <c r="P41" s="101">
+      <c r="P41" s="87">
         <f t="shared" si="32"/>
         <v>-9695.75</v>
       </c>
-      <c r="Q41" s="101">
+      <c r="Q41" s="87">
         <f t="shared" si="32"/>
         <v>-9695.75</v>
       </c>
-      <c r="R41" s="101">
+      <c r="R41" s="87">
         <f t="shared" si="32"/>
         <v>-10380.125</v>
       </c>
-      <c r="S41" s="101">
+      <c r="S41" s="87">
         <f t="shared" si="32"/>
         <v>-11148.875</v>
       </c>
-      <c r="T41" s="101">
+      <c r="T41" s="87">
         <f t="shared" si="32"/>
         <v>-16951.099999999999</v>
       </c>
-      <c r="U41" s="101">
+      <c r="U41" s="87">
         <f t="shared" si="32"/>
         <v>-18144.849999999999</v>
       </c>
-      <c r="V41" s="101">
+      <c r="V41" s="87">
         <f t="shared" si="32"/>
         <v>-20288.599999999999</v>
       </c>
-      <c r="W41" s="101">
+      <c r="W41" s="87">
         <f t="shared" si="32"/>
         <v>-23167.949999999997</v>
       </c>
-      <c r="X41" s="101">
+      <c r="X41" s="87">
         <f t="shared" si="32"/>
         <v>10344.515000000005</v>
       </c>
-      <c r="Y41" s="101">
+      <c r="Y41" s="87">
         <f t="shared" si="32"/>
         <v>9389.3106730769287</v>
       </c>
-      <c r="Z41" s="101">
+      <c r="Z41" s="87">
         <f t="shared" si="32"/>
         <v>6045.7427153753752</v>
       </c>
-      <c r="AA41" s="101">
+      <c r="AA41" s="87">
         <f t="shared" si="32"/>
         <v>5528.7599552251386</v>
       </c>
-      <c r="AB41" s="101">
+      <c r="AB41" s="87">
         <f t="shared" si="32"/>
         <v>4602.7612247549278</v>
       </c>
-      <c r="AC41" s="101">
+      <c r="AC41" s="87">
         <f t="shared" si="32"/>
         <v>3398.9953598800494</v>
       </c>
-      <c r="AD41" s="101">
+      <c r="AD41" s="87">
         <f t="shared" si="32"/>
         <v>2073.7112002901304</v>
       </c>
-      <c r="AE41" s="101">
+      <c r="AE41" s="87">
         <f t="shared" si="32"/>
         <v>21623.782589436883</v>
       </c>
-      <c r="AF41" s="101">
+      <c r="AF41" s="87">
         <f t="shared" si="32"/>
         <v>20154.140778368055</v>
       </c>
-      <c r="AG41" s="101">
+      <c r="AG41" s="87">
         <f t="shared" si="32"/>
         <v>18678.85403570973</v>
       </c>
-      <c r="AH41" s="101">
+      <c r="AH41" s="87">
         <f t="shared" si="32"/>
         <v>12651.945513124718</v>
       </c>
-      <c r="AI41" s="101">
+      <c r="AI41" s="87">
         <f t="shared" si="32"/>
         <v>11527.828368268702</v>
       </c>
-      <c r="AJ41" s="101">
+      <c r="AJ41" s="87">
         <f t="shared" si="32"/>
         <v>3748.7007647708151</v>
       </c>
-      <c r="AK41" s="101">
+      <c r="AK41" s="87">
         <f t="shared" si="32"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AL41" s="101">
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AL41" s="87">
         <f t="shared" si="32"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AM41" s="101">
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AM41" s="87">
         <f t="shared" si="32"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AN41" s="102">
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AN41" s="95">
         <f>SUM(B42:AK42)</f>
-        <v>2233.0757647708188</v>
+        <v>1933.0757647708188</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="104">
+      <c r="B42" s="89">
         <f t="shared" ref="B42:AM42" si="33">B39-B32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="104">
+      <c r="C42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="89">
         <f t="shared" si="33"/>
         <v>-12.5</v>
       </c>
-      <c r="E42" s="104">
+      <c r="E42" s="89">
         <f t="shared" si="33"/>
         <v>-2655.8</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="89">
         <f t="shared" si="33"/>
         <v>-143.75</v>
       </c>
-      <c r="G42" s="104">
+      <c r="G42" s="89">
         <f t="shared" si="33"/>
         <v>-1156.25</v>
       </c>
-      <c r="H42" s="104">
+      <c r="H42" s="89">
         <f t="shared" si="33"/>
         <v>-2063.7250000000004</v>
       </c>
-      <c r="I42" s="104">
+      <c r="I42" s="89">
         <f t="shared" si="33"/>
         <v>-309.375</v>
       </c>
-      <c r="J42" s="104">
+      <c r="J42" s="89">
         <f t="shared" si="33"/>
         <v>-446.875</v>
       </c>
-      <c r="K42" s="104">
+      <c r="K42" s="89">
         <f t="shared" si="33"/>
         <v>-2907.4750000000004</v>
       </c>
-      <c r="L42" s="104">
+      <c r="L42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M42" s="104">
+      <c r="M42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="N42" s="104">
+      <c r="N42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O42" s="104">
+      <c r="O42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="P42" s="104">
+      <c r="P42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="104">
+      <c r="Q42" s="89">
         <f t="shared" si="33"/>
         <v>-684.375</v>
       </c>
-      <c r="R42" s="104">
+      <c r="R42" s="89">
         <f t="shared" si="33"/>
         <v>-768.75</v>
       </c>
-      <c r="S42" s="104">
+      <c r="S42" s="89">
         <f t="shared" si="33"/>
         <v>-5802.2249999999995</v>
       </c>
-      <c r="T42" s="104">
+      <c r="T42" s="89">
         <f t="shared" si="33"/>
         <v>-1193.75</v>
       </c>
-      <c r="U42" s="104">
+      <c r="U42" s="89">
         <f t="shared" si="33"/>
         <v>-2143.75</v>
       </c>
-      <c r="V42" s="104">
+      <c r="V42" s="89">
         <f t="shared" si="33"/>
         <v>-2879.3500000000004</v>
       </c>
-      <c r="W42" s="104">
+      <c r="W42" s="89">
         <f t="shared" si="33"/>
         <v>33512.465000000004</v>
       </c>
-      <c r="X42" s="104">
+      <c r="X42" s="89">
         <f t="shared" si="33"/>
         <v>-955.20432692307691</v>
       </c>
-      <c r="Y42" s="104">
+      <c r="Y42" s="89">
         <f t="shared" si="33"/>
         <v>-3343.5679577015535</v>
       </c>
-      <c r="Z42" s="104">
+      <c r="Z42" s="89">
         <f t="shared" si="33"/>
         <v>-516.98276015023634</v>
       </c>
-      <c r="AA42" s="104">
+      <c r="AA42" s="89">
         <f t="shared" si="33"/>
         <v>-925.99873047021072</v>
       </c>
-      <c r="AB42" s="104">
+      <c r="AB42" s="89">
         <f t="shared" si="33"/>
         <v>-1203.7658648748784</v>
       </c>
-      <c r="AC42" s="104">
+      <c r="AC42" s="89">
         <f t="shared" si="33"/>
         <v>-1325.2841595899188</v>
       </c>
-      <c r="AD42" s="104">
+      <c r="AD42" s="89">
         <f t="shared" si="33"/>
         <v>19550.071389146753</v>
       </c>
-      <c r="AE42" s="104">
+      <c r="AE42" s="89">
         <f t="shared" si="33"/>
         <v>-1469.6418110688282</v>
       </c>
-      <c r="AF42" s="104">
+      <c r="AF42" s="89">
         <f t="shared" si="33"/>
         <v>-1475.2867426583239</v>
       </c>
-      <c r="AG42" s="104">
+      <c r="AG42" s="89">
         <f t="shared" si="33"/>
         <v>-6026.9085225850122</v>
       </c>
-      <c r="AH42" s="104">
+      <c r="AH42" s="89">
         <f t="shared" si="33"/>
         <v>-1124.1171448560158</v>
       </c>
-      <c r="AI42" s="104">
+      <c r="AI42" s="89">
         <f t="shared" si="33"/>
         <v>-7779.1276034978864</v>
       </c>
-      <c r="AJ42" s="104">
+      <c r="AJ42" s="89">
         <f t="shared" si="33"/>
-        <v>-1515.625</v>
-      </c>
-      <c r="AK42" s="104">
+        <v>-1815.625</v>
+      </c>
+      <c r="AK42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="104">
+      <c r="AL42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="104">
+      <c r="AM42" s="89">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AN42" s="33"/>
+      <c r="AN42" s="96"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="106">
+      <c r="B43" s="91">
         <f t="shared" ref="B43:AM43" si="34">B41+B39-B32</f>
         <v>0</v>
       </c>
-      <c r="C43" s="106">
+      <c r="C43" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="D43" s="106">
+      <c r="D43" s="91">
         <f t="shared" si="34"/>
         <v>-12.5</v>
       </c>
-      <c r="E43" s="106">
+      <c r="E43" s="91">
         <f t="shared" si="34"/>
         <v>-2668.3</v>
       </c>
-      <c r="F43" s="106">
+      <c r="F43" s="91">
         <f t="shared" si="34"/>
         <v>-2812.05</v>
       </c>
-      <c r="G43" s="106">
+      <c r="G43" s="91">
         <f t="shared" si="34"/>
         <v>-3968.3</v>
       </c>
-      <c r="H43" s="106">
+      <c r="H43" s="91">
         <f t="shared" si="34"/>
         <v>-6032.0250000000005</v>
       </c>
-      <c r="I43" s="106">
+      <c r="I43" s="91">
         <f t="shared" si="34"/>
         <v>-6341.4000000000005</v>
       </c>
-      <c r="J43" s="106">
+      <c r="J43" s="91">
         <f t="shared" si="34"/>
         <v>-6788.2750000000005</v>
       </c>
-      <c r="K43" s="106">
+      <c r="K43" s="91">
         <f t="shared" si="34"/>
         <v>-9695.75</v>
       </c>
-      <c r="L43" s="106">
+      <c r="L43" s="91">
         <f t="shared" si="34"/>
         <v>-9695.75</v>
       </c>
-      <c r="M43" s="106">
+      <c r="M43" s="91">
         <f t="shared" si="34"/>
         <v>-9695.75</v>
       </c>
-      <c r="N43" s="106">
+      <c r="N43" s="91">
         <f t="shared" si="34"/>
         <v>-9695.75</v>
       </c>
-      <c r="O43" s="106">
+      <c r="O43" s="91">
         <f t="shared" si="34"/>
         <v>-9695.75</v>
       </c>
-      <c r="P43" s="106">
+      <c r="P43" s="91">
         <f t="shared" si="34"/>
         <v>-9695.75</v>
       </c>
-      <c r="Q43" s="106">
+      <c r="Q43" s="91">
         <f t="shared" si="34"/>
         <v>-10380.125</v>
       </c>
-      <c r="R43" s="106">
+      <c r="R43" s="91">
         <f t="shared" si="34"/>
         <v>-11148.875</v>
       </c>
-      <c r="S43" s="106">
+      <c r="S43" s="91">
         <f t="shared" si="34"/>
         <v>-16951.099999999999</v>
       </c>
-      <c r="T43" s="106">
+      <c r="T43" s="91">
         <f t="shared" si="34"/>
         <v>-18144.849999999999</v>
       </c>
-      <c r="U43" s="106">
+      <c r="U43" s="91">
         <f t="shared" si="34"/>
         <v>-20288.599999999999</v>
       </c>
-      <c r="V43" s="106">
+      <c r="V43" s="91">
         <f t="shared" si="34"/>
         <v>-23167.949999999997</v>
       </c>
-      <c r="W43" s="106">
+      <c r="W43" s="91">
         <f t="shared" si="34"/>
         <v>10344.515000000005</v>
       </c>
-      <c r="X43" s="106">
+      <c r="X43" s="91">
         <f t="shared" si="34"/>
         <v>9389.3106730769287</v>
       </c>
-      <c r="Y43" s="106">
+      <c r="Y43" s="91">
         <f t="shared" si="34"/>
         <v>6045.7427153753752</v>
       </c>
-      <c r="Z43" s="106">
+      <c r="Z43" s="91">
         <f t="shared" si="34"/>
         <v>5528.7599552251386</v>
       </c>
-      <c r="AA43" s="106">
+      <c r="AA43" s="91">
         <f t="shared" si="34"/>
         <v>4602.7612247549278</v>
       </c>
-      <c r="AB43" s="106">
+      <c r="AB43" s="91">
         <f t="shared" si="34"/>
         <v>3398.9953598800494</v>
       </c>
-      <c r="AC43" s="106">
+      <c r="AC43" s="91">
         <f t="shared" si="34"/>
         <v>2073.7112002901304</v>
       </c>
-      <c r="AD43" s="106">
+      <c r="AD43" s="91">
         <f t="shared" si="34"/>
         <v>21623.782589436883</v>
       </c>
-      <c r="AE43" s="106">
+      <c r="AE43" s="91">
         <f t="shared" si="34"/>
         <v>20154.140778368055</v>
       </c>
-      <c r="AF43" s="106">
+      <c r="AF43" s="91">
         <f t="shared" si="34"/>
         <v>18678.85403570973</v>
       </c>
-      <c r="AG43" s="106">
+      <c r="AG43" s="91">
         <f t="shared" si="34"/>
         <v>12651.945513124718</v>
       </c>
-      <c r="AH43" s="106">
+      <c r="AH43" s="91">
         <f t="shared" si="34"/>
         <v>11527.828368268702</v>
       </c>
-      <c r="AI43" s="106">
+      <c r="AI43" s="91">
         <f t="shared" si="34"/>
         <v>3748.7007647708151</v>
       </c>
-      <c r="AJ43" s="106">
+      <c r="AJ43" s="91">
         <f t="shared" si="34"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AK43" s="106">
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AK43" s="91">
         <f t="shared" si="34"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AL43" s="106">
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AL43" s="91">
         <f t="shared" si="34"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AM43" s="106">
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AM43" s="91">
         <f t="shared" si="34"/>
-        <v>2233.0757647708151</v>
-      </c>
-      <c r="AN43" s="40"/>
+        <v>1933.0757647708151</v>
+      </c>
+      <c r="AN43" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AM1"/>
     <mergeCell ref="AN41:AN43"/>
     <mergeCell ref="B4:AN4"/>
     <mergeCell ref="B13:AN13"/>
@@ -10135,12 +10078,6 @@
     <mergeCell ref="B33:AN33"/>
     <mergeCell ref="AN37:AN38"/>
     <mergeCell ref="B40:AN40"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AM1"/>
-    <mergeCell ref="AN1:AN3"/>
   </mergeCells>
   <conditionalFormatting sqref="B40:AN43">
     <cfRule type="colorScale" priority="1">
@@ -10175,13 +10112,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:AM24 B26:AM26 B28:AM28 B30:AM30 B38:AM38">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(B24))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:AM3">
-    <cfRule type="timePeriod" dxfId="0" priority="5" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B3,1)&lt;=6,FLOOR(B3,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
